--- a/Sensitivity Analysis of Marketing Strategies.xlsx
+++ b/Sensitivity Analysis of Marketing Strategies.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://smu-my.sharepoint.com/personal/madittmer_2018_socsc_smu_edu_sg/Documents/University Stuff/Year 2 Sem 2/4. Spreadsheet Modeling &amp; Analytics/Project/SMA-Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LIYAO\OneDrive - Singapore Management University\SMA G7\Group Project\Github\SMA-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2D29F41-F614-40AF-8A5B-C4456C386DB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92560B06-798D-4FC3-9F0B-9FF2B63F9308}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{47D6FB81-707F-442F-B7B5-908A315AAEB2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{47D6FB81-707F-442F-B7B5-908A315AAEB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Social Media" sheetId="1" r:id="rId1"/>
-    <sheet name="Fave" sheetId="4" r:id="rId2"/>
+    <sheet name="SEO" sheetId="4" r:id="rId2"/>
     <sheet name="Google " sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
   <si>
     <t xml:space="preserve">Revenue </t>
   </si>
@@ -59,9 +59,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -162,7 +163,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -190,6 +191,9 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1696,6 +1700,1453 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-SG"/>
+              <a:t>Sensitivity</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-SG" baseline="0"/>
+              <a:t> Analysis of SEO</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-SG"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>SEO!$C$6:$S$6</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>136.26899999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>138.43199999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140.595</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>142.75800000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>144.92100000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>147.084</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>149.24700000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>151.41000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>153.57299999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>155.73599999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>157.899</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>160.06199999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>162.22499999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>164.38800000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>166.55100000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>168.714</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170.87699999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A11D-4168-89C3-659F346699FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>SEO!$C$7:$S$7</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>149.89589999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>152.27520000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>154.65449999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>157.03380000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>159.41310000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>161.79240000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>164.17170000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>166.55100000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>168.93029999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>171.30959999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>173.68889999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>176.06819999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>178.44749999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>180.82679999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>183.20609999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>185.58539999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>187.96469999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A11D-4168-89C3-659F346699FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>SEO!$C$8:$S$8</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>163.52279999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>166.11839999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>168.71400000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>171.30960000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>173.90520000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>176.5008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>179.09640000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>181.69200000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>184.2876</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>186.88319999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>189.47879999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>192.07439999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>194.67</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>197.26560000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>199.8612</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>202.45679999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>205.05240000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A11D-4168-89C3-659F346699FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>SEO!$C$9:$S$9</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>177.1497</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>179.9616</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>182.77350000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>185.58540000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>188.39730000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>191.20920000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>194.02110000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>196.83300000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>199.64489999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>202.45679999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>205.2687</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>208.0806</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>210.89250000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>213.70439999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>216.5163</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>219.32820000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>222.14009999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A11D-4168-89C3-659F346699FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>SEO!$C$10:$S$10</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>190.7766</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>193.8048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>196.833</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>199.86120000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>202.88939999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>205.91760000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>208.94580000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>211.97400000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>215.00219999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>218.03039999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>221.05859999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>224.08679999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>227.11500000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>230.14319999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>233.17139999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>236.19959999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>239.2278</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A11D-4168-89C3-659F346699FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>SEO!$C$11:$S$11</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>204.40350000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>207.648</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>210.89250000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>214.13700000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>217.38150000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>220.626</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>223.87050000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>227.11500000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>230.35949999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>233.60399999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>236.8485</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>240.09299999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>243.33750000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>246.58199999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>249.82649999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>253.071</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>256.31549999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A11D-4168-89C3-659F346699FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>SEO!$C$12:$S$12</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>218.03040000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>221.49119999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>224.95200000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>228.4128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>231.87360000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>235.33440000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>238.79520000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>242.256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>245.71679999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>249.17759999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>252.63839999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>256.0992</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>259.56</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>263.02079999999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>266.48160000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>269.94239999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>273.40320000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-A11D-4168-89C3-659F346699FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>SEO!$C$13:$S$13</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>231.65730000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>235.33440000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>239.01149999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>242.68860000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>246.3657</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250.0428</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>253.71990000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>257.39699999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>261.07409999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>264.75119999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>268.42829999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>272.10539999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>275.78249999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>279.45959999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>283.13669999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>286.81380000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>290.49090000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-A11D-4168-89C3-659F346699FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>SEO!$C$14:$S$14</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>245.28420000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>249.17760000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>253.071</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256.96440000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>260.8578</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>264.75120000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>268.64460000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>272.53800000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>276.4314</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>280.32479999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>284.21819999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>288.11160000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>292.005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>295.89839999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>299.79179999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>303.68519999999995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>307.57860000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-A11D-4168-89C3-659F346699FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>SEO!$C$15:$S$15</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>258.91110000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>263.02080000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>267.13050000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>271.24020000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>275.34990000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>279.45960000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>283.56930000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>287.67900000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>291.78870000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>295.89839999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300.00810000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>304.11779999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>308.22750000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>312.3372</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>316.44690000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>320.5566</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>324.66629999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-A11D-4168-89C3-659F346699FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>SEO!$C$16:$S$16</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>272.53799999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>276.86399999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>281.19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>285.51600000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>289.84200000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>294.16800000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>298.49400000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>302.82000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>307.14599999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>311.47199999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>315.798</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>320.12399999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>324.45</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>328.77600000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>333.10200000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>337.428</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>341.75399999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-A11D-4168-89C3-659F346699FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>SEO!$C$17:$S$17</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>286.16489999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>290.7072</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>295.24950000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>299.79180000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>304.33409999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>308.87640000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>313.41870000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>317.96100000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>322.50329999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>327.04559999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>331.58789999999993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>336.1302</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>340.67250000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>345.21479999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>349.75709999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>354.29939999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>358.8417</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-A11D-4168-89C3-659F346699FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>SEO!$C$18:$S$18</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>299.79179999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>304.55040000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>309.30899999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>314.06760000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>318.82620000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>323.58480000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>328.34340000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>333.10200000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>337.86059999999992</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>342.61919999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>347.37779999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>352.13639999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>356.89499999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>361.65359999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>366.41219999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>371.17079999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>375.92939999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-A11D-4168-89C3-659F346699FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>SEO!$C$19:$S$19</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>313.4187</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>318.39360000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>323.36849999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>328.34339999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>333.31830000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>338.29320000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>343.26810000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>348.24300000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>353.21789999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>358.19279999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>363.16769999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>368.14259999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>373.11750000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>378.0924</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>383.06729999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>388.04219999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>393.01709999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-A11D-4168-89C3-659F346699FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="763818776"/>
+        <c:axId val="763816808"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="763818776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="763816808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="763816808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="763818776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-SG"/>
               <a:t>Sensitivity Analysis of Google My Business</a:t>
             </a:r>
           </a:p>
@@ -1765,7 +3216,7 @@
             <c:numRef>
               <c:f>'Google '!$C$6:$S$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>35.559000000000005</c:v>
@@ -1847,7 +3298,7 @@
             <c:numRef>
               <c:f>'Google '!$C$7:$S$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>36.876000000000005</c:v>
@@ -1929,7 +3380,7 @@
             <c:numRef>
               <c:f>'Google '!$C$8:$S$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>38.192999999999998</c:v>
@@ -2011,7 +3462,7 @@
             <c:numRef>
               <c:f>'Google '!$C$9:$S$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>39.51</c:v>
@@ -2093,7 +3544,7 @@
             <c:numRef>
               <c:f>'Google '!$C$10:$S$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>40.826999999999998</c:v>
@@ -2175,7 +3626,7 @@
             <c:numRef>
               <c:f>'Google '!$C$11:$S$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>42.144000000000005</c:v>
@@ -2259,7 +3710,7 @@
             <c:numRef>
               <c:f>'Google '!$C$12:$S$12</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>43.461000000000006</c:v>
@@ -2343,7 +3794,7 @@
             <c:numRef>
               <c:f>'Google '!$C$13:$S$13</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44.777999999999999</c:v>
@@ -2427,7 +3878,7 @@
             <c:numRef>
               <c:f>'Google '!$C$14:$S$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>46.094999999999999</c:v>
@@ -2511,7 +3962,7 @@
             <c:numRef>
               <c:f>'Google '!$C$15:$S$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>47.411999999999999</c:v>
@@ -2595,7 +4046,7 @@
             <c:numRef>
               <c:f>'Google '!$C$16:$S$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>48.728999999999999</c:v>
@@ -2679,7 +4130,7 @@
             <c:numRef>
               <c:f>'Google '!$C$17:$S$17</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>50.046000000000006</c:v>
@@ -2764,7 +4215,7 @@
             <c:numRef>
               <c:f>'Google '!$C$18:$S$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>51.363</c:v>
@@ -2849,7 +4300,7 @@
             <c:numRef>
               <c:f>'Google '!$C$19:$S$19</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>52.68</c:v>
@@ -2995,7 +4446,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3154,6 +4605,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4225,6 +5716,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4267,6 +6274,47 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>339725</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>34925</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2835C913-7507-49A0-BD8D-90D97423630F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4606,8 +6654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C3465F-F7FA-4C05-9779-9F86EE094B58}">
   <dimension ref="B2:S19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="69" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5532,15 +7580,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE27D5C6-A73D-453B-8970-5BEBA7CFED28}">
-  <dimension ref="B2:K18"/>
+  <dimension ref="B2:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:19" ht="29" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -5550,182 +7598,895 @@
       <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="E2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B3" s="1">
+        <v>100</v>
+      </c>
+      <c r="C3" s="19">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="D3" s="11">
+        <f>(G3+H3)/2</f>
+        <v>3.605</v>
+      </c>
+      <c r="E3" s="18">
+        <f>PRODUCT(B3:D3)</f>
+        <v>52.632999999999996</v>
+      </c>
+      <c r="F3" s="12">
+        <v>5.96</v>
+      </c>
+      <c r="G3" s="12">
+        <v>7.21</v>
+      </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B5" s="8">
+        <f>E3</f>
+        <v>52.632999999999996</v>
+      </c>
+      <c r="C5" s="20">
+        <v>0.126</v>
+      </c>
+      <c r="D5" s="20">
+        <v>0.128</v>
+      </c>
+      <c r="E5" s="20">
+        <v>0.13</v>
+      </c>
+      <c r="F5" s="20">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="G5" s="20">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="H5" s="20">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="I5" s="20">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="J5" s="20">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K5" s="20">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="L5" s="20">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="M5" s="20">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="N5" s="20">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="O5" s="20">
+        <v>0.15</v>
+      </c>
+      <c r="P5" s="20">
+        <v>0.152</v>
+      </c>
+      <c r="Q5" s="20">
+        <v>0.154</v>
+      </c>
+      <c r="R5" s="20">
+        <v>0.156</v>
+      </c>
+      <c r="S5" s="20">
+        <v>0.158</v>
+      </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B6" s="2"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B6" s="2">
+        <v>300</v>
+      </c>
+      <c r="C6" s="21">
+        <f t="dataTable" ref="C6:S19" dt2D="1" dtr="1" r1="C3" r2="B3"/>
+        <v>136.26899999999998</v>
+      </c>
+      <c r="D6" s="21">
+        <v>138.43199999999999</v>
+      </c>
+      <c r="E6" s="21">
+        <v>140.595</v>
+      </c>
+      <c r="F6" s="21">
+        <v>142.75800000000001</v>
+      </c>
+      <c r="G6" s="21">
+        <v>144.92100000000002</v>
+      </c>
+      <c r="H6" s="21">
+        <v>147.084</v>
+      </c>
+      <c r="I6" s="21">
+        <v>149.24700000000001</v>
+      </c>
+      <c r="J6" s="21">
+        <v>151.41000000000003</v>
+      </c>
+      <c r="K6" s="21">
+        <v>153.57299999999998</v>
+      </c>
+      <c r="L6" s="21">
+        <v>155.73599999999999</v>
+      </c>
+      <c r="M6" s="21">
+        <v>157.899</v>
+      </c>
+      <c r="N6" s="21">
+        <v>160.06199999999998</v>
+      </c>
+      <c r="O6" s="21">
+        <v>162.22499999999999</v>
+      </c>
+      <c r="P6" s="21">
+        <v>164.38800000000001</v>
+      </c>
+      <c r="Q6" s="21">
+        <v>166.55100000000002</v>
+      </c>
+      <c r="R6" s="21">
+        <v>168.714</v>
+      </c>
+      <c r="S6" s="21">
+        <v>170.87699999999998</v>
+      </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B7" s="2"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B7" s="2">
+        <v>330</v>
+      </c>
+      <c r="C7" s="21">
+        <v>149.89589999999998</v>
+      </c>
+      <c r="D7" s="21">
+        <v>152.27520000000001</v>
+      </c>
+      <c r="E7" s="21">
+        <v>154.65449999999998</v>
+      </c>
+      <c r="F7" s="21">
+        <v>157.03380000000001</v>
+      </c>
+      <c r="G7" s="21">
+        <v>159.41310000000001</v>
+      </c>
+      <c r="H7" s="21">
+        <v>161.79240000000001</v>
+      </c>
+      <c r="I7" s="21">
+        <v>164.17170000000002</v>
+      </c>
+      <c r="J7" s="21">
+        <v>166.55100000000002</v>
+      </c>
+      <c r="K7" s="21">
+        <v>168.93029999999996</v>
+      </c>
+      <c r="L7" s="21">
+        <v>171.30959999999999</v>
+      </c>
+      <c r="M7" s="21">
+        <v>173.68889999999999</v>
+      </c>
+      <c r="N7" s="21">
+        <v>176.06819999999999</v>
+      </c>
+      <c r="O7" s="21">
+        <v>178.44749999999999</v>
+      </c>
+      <c r="P7" s="21">
+        <v>180.82679999999999</v>
+      </c>
+      <c r="Q7" s="21">
+        <v>183.20609999999999</v>
+      </c>
+      <c r="R7" s="21">
+        <v>185.58539999999999</v>
+      </c>
+      <c r="S7" s="21">
+        <v>187.96469999999999</v>
+      </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B8" s="2"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B8" s="2">
+        <v>360</v>
+      </c>
+      <c r="C8" s="21">
+        <v>163.52279999999999</v>
+      </c>
+      <c r="D8" s="21">
+        <v>166.11839999999998</v>
+      </c>
+      <c r="E8" s="21">
+        <v>168.71400000000003</v>
+      </c>
+      <c r="F8" s="21">
+        <v>171.30960000000002</v>
+      </c>
+      <c r="G8" s="21">
+        <v>173.90520000000001</v>
+      </c>
+      <c r="H8" s="21">
+        <v>176.5008</v>
+      </c>
+      <c r="I8" s="21">
+        <v>179.09640000000002</v>
+      </c>
+      <c r="J8" s="21">
+        <v>181.69200000000001</v>
+      </c>
+      <c r="K8" s="21">
+        <v>184.2876</v>
+      </c>
+      <c r="L8" s="21">
+        <v>186.88319999999999</v>
+      </c>
+      <c r="M8" s="21">
+        <v>189.47879999999998</v>
+      </c>
+      <c r="N8" s="21">
+        <v>192.07439999999997</v>
+      </c>
+      <c r="O8" s="21">
+        <v>194.67</v>
+      </c>
+      <c r="P8" s="21">
+        <v>197.26560000000001</v>
+      </c>
+      <c r="Q8" s="21">
+        <v>199.8612</v>
+      </c>
+      <c r="R8" s="21">
+        <v>202.45679999999999</v>
+      </c>
+      <c r="S8" s="21">
+        <v>205.05240000000001</v>
+      </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B9" s="2"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B9" s="2">
+        <v>390</v>
+      </c>
+      <c r="C9" s="21">
+        <v>177.1497</v>
+      </c>
+      <c r="D9" s="21">
+        <v>179.9616</v>
+      </c>
+      <c r="E9" s="21">
+        <v>182.77350000000001</v>
+      </c>
+      <c r="F9" s="21">
+        <v>185.58540000000002</v>
+      </c>
+      <c r="G9" s="21">
+        <v>188.39730000000003</v>
+      </c>
+      <c r="H9" s="21">
+        <v>191.20920000000001</v>
+      </c>
+      <c r="I9" s="21">
+        <v>194.02110000000002</v>
+      </c>
+      <c r="J9" s="21">
+        <v>196.83300000000003</v>
+      </c>
+      <c r="K9" s="21">
+        <v>199.64489999999998</v>
+      </c>
+      <c r="L9" s="21">
+        <v>202.45679999999999</v>
+      </c>
+      <c r="M9" s="21">
+        <v>205.2687</v>
+      </c>
+      <c r="N9" s="21">
+        <v>208.0806</v>
+      </c>
+      <c r="O9" s="21">
+        <v>210.89250000000001</v>
+      </c>
+      <c r="P9" s="21">
+        <v>213.70439999999999</v>
+      </c>
+      <c r="Q9" s="21">
+        <v>216.5163</v>
+      </c>
+      <c r="R9" s="21">
+        <v>219.32820000000001</v>
+      </c>
+      <c r="S9" s="21">
+        <v>222.14009999999999</v>
+      </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B10" s="2"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B10" s="2">
+        <v>420</v>
+      </c>
+      <c r="C10" s="21">
+        <v>190.7766</v>
+      </c>
+      <c r="D10" s="21">
+        <v>193.8048</v>
+      </c>
+      <c r="E10" s="21">
+        <v>196.833</v>
+      </c>
+      <c r="F10" s="21">
+        <v>199.86120000000003</v>
+      </c>
+      <c r="G10" s="21">
+        <v>202.88939999999999</v>
+      </c>
+      <c r="H10" s="21">
+        <v>205.91760000000002</v>
+      </c>
+      <c r="I10" s="21">
+        <v>208.94580000000002</v>
+      </c>
+      <c r="J10" s="21">
+        <v>211.97400000000002</v>
+      </c>
+      <c r="K10" s="21">
+        <v>215.00219999999999</v>
+      </c>
+      <c r="L10" s="21">
+        <v>218.03039999999999</v>
+      </c>
+      <c r="M10" s="21">
+        <v>221.05859999999998</v>
+      </c>
+      <c r="N10" s="21">
+        <v>224.08679999999998</v>
+      </c>
+      <c r="O10" s="21">
+        <v>227.11500000000001</v>
+      </c>
+      <c r="P10" s="21">
+        <v>230.14319999999998</v>
+      </c>
+      <c r="Q10" s="21">
+        <v>233.17139999999998</v>
+      </c>
+      <c r="R10" s="21">
+        <v>236.19959999999998</v>
+      </c>
+      <c r="S10" s="21">
+        <v>239.2278</v>
+      </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B11" s="2"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B11" s="2">
+        <v>450</v>
+      </c>
+      <c r="C11" s="21">
+        <v>204.40350000000001</v>
+      </c>
+      <c r="D11" s="21">
+        <v>207.648</v>
+      </c>
+      <c r="E11" s="21">
+        <v>210.89250000000001</v>
+      </c>
+      <c r="F11" s="21">
+        <v>214.13700000000003</v>
+      </c>
+      <c r="G11" s="21">
+        <v>217.38150000000002</v>
+      </c>
+      <c r="H11" s="21">
+        <v>220.626</v>
+      </c>
+      <c r="I11" s="21">
+        <v>223.87050000000002</v>
+      </c>
+      <c r="J11" s="21">
+        <v>227.11500000000004</v>
+      </c>
+      <c r="K11" s="21">
+        <v>230.35949999999997</v>
+      </c>
+      <c r="L11" s="21">
+        <v>233.60399999999998</v>
+      </c>
+      <c r="M11" s="21">
+        <v>236.8485</v>
+      </c>
+      <c r="N11" s="21">
+        <v>240.09299999999999</v>
+      </c>
+      <c r="O11" s="21">
+        <v>243.33750000000001</v>
+      </c>
+      <c r="P11" s="21">
+        <v>246.58199999999997</v>
+      </c>
+      <c r="Q11" s="21">
+        <v>249.82649999999998</v>
+      </c>
+      <c r="R11" s="21">
+        <v>253.071</v>
+      </c>
+      <c r="S11" s="21">
+        <v>256.31549999999999</v>
+      </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B12" s="2"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B12" s="2">
+        <v>480</v>
+      </c>
+      <c r="C12" s="21">
+        <v>218.03040000000001</v>
+      </c>
+      <c r="D12" s="21">
+        <v>221.49119999999999</v>
+      </c>
+      <c r="E12" s="21">
+        <v>224.95200000000003</v>
+      </c>
+      <c r="F12" s="21">
+        <v>228.4128</v>
+      </c>
+      <c r="G12" s="21">
+        <v>231.87360000000004</v>
+      </c>
+      <c r="H12" s="21">
+        <v>235.33440000000002</v>
+      </c>
+      <c r="I12" s="21">
+        <v>238.79520000000002</v>
+      </c>
+      <c r="J12" s="21">
+        <v>242.256</v>
+      </c>
+      <c r="K12" s="21">
+        <v>245.71679999999998</v>
+      </c>
+      <c r="L12" s="21">
+        <v>249.17759999999996</v>
+      </c>
+      <c r="M12" s="21">
+        <v>252.63839999999999</v>
+      </c>
+      <c r="N12" s="21">
+        <v>256.0992</v>
+      </c>
+      <c r="O12" s="21">
+        <v>259.56</v>
+      </c>
+      <c r="P12" s="21">
+        <v>263.02079999999995</v>
+      </c>
+      <c r="Q12" s="21">
+        <v>266.48160000000001</v>
+      </c>
+      <c r="R12" s="21">
+        <v>269.94239999999996</v>
+      </c>
+      <c r="S12" s="21">
+        <v>273.40320000000003</v>
+      </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B13" s="2"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B13" s="2">
+        <v>510</v>
+      </c>
+      <c r="C13" s="21">
+        <v>231.65730000000002</v>
+      </c>
+      <c r="D13" s="21">
+        <v>235.33440000000002</v>
+      </c>
+      <c r="E13" s="21">
+        <v>239.01149999999998</v>
+      </c>
+      <c r="F13" s="21">
+        <v>242.68860000000004</v>
+      </c>
+      <c r="G13" s="21">
+        <v>246.3657</v>
+      </c>
+      <c r="H13" s="21">
+        <v>250.0428</v>
+      </c>
+      <c r="I13" s="21">
+        <v>253.71990000000002</v>
+      </c>
+      <c r="J13" s="21">
+        <v>257.39699999999999</v>
+      </c>
+      <c r="K13" s="21">
+        <v>261.07409999999993</v>
+      </c>
+      <c r="L13" s="21">
+        <v>264.75119999999998</v>
+      </c>
+      <c r="M13" s="21">
+        <v>268.42829999999998</v>
+      </c>
+      <c r="N13" s="21">
+        <v>272.10539999999997</v>
+      </c>
+      <c r="O13" s="21">
+        <v>275.78249999999997</v>
+      </c>
+      <c r="P13" s="21">
+        <v>279.45959999999997</v>
+      </c>
+      <c r="Q13" s="21">
+        <v>283.13669999999996</v>
+      </c>
+      <c r="R13" s="21">
+        <v>286.81380000000001</v>
+      </c>
+      <c r="S13" s="21">
+        <v>290.49090000000001</v>
+      </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B14" s="2"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B14" s="2">
+        <v>540</v>
+      </c>
+      <c r="C14" s="21">
+        <v>245.28420000000003</v>
+      </c>
+      <c r="D14" s="21">
+        <v>249.17760000000001</v>
+      </c>
+      <c r="E14" s="21">
+        <v>253.071</v>
+      </c>
+      <c r="F14" s="21">
+        <v>256.96440000000001</v>
+      </c>
+      <c r="G14" s="21">
+        <v>260.8578</v>
+      </c>
+      <c r="H14" s="21">
+        <v>264.75120000000004</v>
+      </c>
+      <c r="I14" s="21">
+        <v>268.64460000000003</v>
+      </c>
+      <c r="J14" s="21">
+        <v>272.53800000000001</v>
+      </c>
+      <c r="K14" s="21">
+        <v>276.4314</v>
+      </c>
+      <c r="L14" s="21">
+        <v>280.32479999999998</v>
+      </c>
+      <c r="M14" s="21">
+        <v>284.21819999999997</v>
+      </c>
+      <c r="N14" s="21">
+        <v>288.11160000000001</v>
+      </c>
+      <c r="O14" s="21">
+        <v>292.005</v>
+      </c>
+      <c r="P14" s="21">
+        <v>295.89839999999998</v>
+      </c>
+      <c r="Q14" s="21">
+        <v>299.79179999999997</v>
+      </c>
+      <c r="R14" s="21">
+        <v>303.68519999999995</v>
+      </c>
+      <c r="S14" s="21">
+        <v>307.57860000000005</v>
+      </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B15" s="2"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B15" s="2">
+        <v>570</v>
+      </c>
+      <c r="C15" s="21">
+        <v>258.91110000000003</v>
+      </c>
+      <c r="D15" s="21">
+        <v>263.02080000000001</v>
+      </c>
+      <c r="E15" s="21">
+        <v>267.13050000000004</v>
+      </c>
+      <c r="F15" s="21">
+        <v>271.24020000000002</v>
+      </c>
+      <c r="G15" s="21">
+        <v>275.34990000000005</v>
+      </c>
+      <c r="H15" s="21">
+        <v>279.45960000000002</v>
+      </c>
+      <c r="I15" s="21">
+        <v>283.56930000000006</v>
+      </c>
+      <c r="J15" s="21">
+        <v>287.67900000000003</v>
+      </c>
+      <c r="K15" s="21">
+        <v>291.78870000000001</v>
+      </c>
+      <c r="L15" s="21">
+        <v>295.89839999999998</v>
+      </c>
+      <c r="M15" s="21">
+        <v>300.00810000000001</v>
+      </c>
+      <c r="N15" s="21">
+        <v>304.11779999999999</v>
+      </c>
+      <c r="O15" s="21">
+        <v>308.22750000000002</v>
+      </c>
+      <c r="P15" s="21">
+        <v>312.3372</v>
+      </c>
+      <c r="Q15" s="21">
+        <v>316.44690000000003</v>
+      </c>
+      <c r="R15" s="21">
+        <v>320.5566</v>
+      </c>
+      <c r="S15" s="21">
+        <v>324.66629999999998</v>
+      </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B16" s="2"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B16" s="2">
+        <v>600</v>
+      </c>
+      <c r="C16" s="21">
+        <v>272.53799999999995</v>
+      </c>
+      <c r="D16" s="21">
+        <v>276.86399999999998</v>
+      </c>
+      <c r="E16" s="21">
+        <v>281.19</v>
+      </c>
+      <c r="F16" s="21">
+        <v>285.51600000000002</v>
+      </c>
+      <c r="G16" s="21">
+        <v>289.84200000000004</v>
+      </c>
+      <c r="H16" s="21">
+        <v>294.16800000000001</v>
+      </c>
+      <c r="I16" s="21">
+        <v>298.49400000000003</v>
+      </c>
+      <c r="J16" s="21">
+        <v>302.82000000000005</v>
+      </c>
+      <c r="K16" s="21">
+        <v>307.14599999999996</v>
+      </c>
+      <c r="L16" s="21">
+        <v>311.47199999999998</v>
+      </c>
+      <c r="M16" s="21">
+        <v>315.798</v>
+      </c>
+      <c r="N16" s="21">
+        <v>320.12399999999997</v>
+      </c>
+      <c r="O16" s="21">
+        <v>324.45</v>
+      </c>
+      <c r="P16" s="21">
+        <v>328.77600000000001</v>
+      </c>
+      <c r="Q16" s="21">
+        <v>333.10200000000003</v>
+      </c>
+      <c r="R16" s="21">
+        <v>337.428</v>
+      </c>
+      <c r="S16" s="21">
+        <v>341.75399999999996</v>
+      </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B17" s="2"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B17" s="2">
+        <v>630</v>
+      </c>
+      <c r="C17" s="21">
+        <v>286.16489999999999</v>
+      </c>
+      <c r="D17" s="21">
+        <v>290.7072</v>
+      </c>
+      <c r="E17" s="21">
+        <v>295.24950000000001</v>
+      </c>
+      <c r="F17" s="21">
+        <v>299.79180000000002</v>
+      </c>
+      <c r="G17" s="21">
+        <v>304.33409999999998</v>
+      </c>
+      <c r="H17" s="21">
+        <v>308.87640000000005</v>
+      </c>
+      <c r="I17" s="21">
+        <v>313.41870000000006</v>
+      </c>
+      <c r="J17" s="21">
+        <v>317.96100000000001</v>
+      </c>
+      <c r="K17" s="21">
+        <v>322.50329999999997</v>
+      </c>
+      <c r="L17" s="21">
+        <v>327.04559999999998</v>
+      </c>
+      <c r="M17" s="21">
+        <v>331.58789999999993</v>
+      </c>
+      <c r="N17" s="21">
+        <v>336.1302</v>
+      </c>
+      <c r="O17" s="21">
+        <v>340.67250000000001</v>
+      </c>
+      <c r="P17" s="21">
+        <v>345.21479999999997</v>
+      </c>
+      <c r="Q17" s="21">
+        <v>349.75709999999998</v>
+      </c>
+      <c r="R17" s="21">
+        <v>354.29939999999999</v>
+      </c>
+      <c r="S17" s="21">
+        <v>358.8417</v>
+      </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B18" s="2"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B18" s="2">
+        <v>660</v>
+      </c>
+      <c r="C18" s="21">
+        <v>299.79179999999997</v>
+      </c>
+      <c r="D18" s="21">
+        <v>304.55040000000002</v>
+      </c>
+      <c r="E18" s="21">
+        <v>309.30899999999997</v>
+      </c>
+      <c r="F18" s="21">
+        <v>314.06760000000003</v>
+      </c>
+      <c r="G18" s="21">
+        <v>318.82620000000003</v>
+      </c>
+      <c r="H18" s="21">
+        <v>323.58480000000003</v>
+      </c>
+      <c r="I18" s="21">
+        <v>328.34340000000003</v>
+      </c>
+      <c r="J18" s="21">
+        <v>333.10200000000003</v>
+      </c>
+      <c r="K18" s="21">
+        <v>337.86059999999992</v>
+      </c>
+      <c r="L18" s="21">
+        <v>342.61919999999998</v>
+      </c>
+      <c r="M18" s="21">
+        <v>347.37779999999998</v>
+      </c>
+      <c r="N18" s="21">
+        <v>352.13639999999998</v>
+      </c>
+      <c r="O18" s="21">
+        <v>356.89499999999998</v>
+      </c>
+      <c r="P18" s="21">
+        <v>361.65359999999998</v>
+      </c>
+      <c r="Q18" s="21">
+        <v>366.41219999999998</v>
+      </c>
+      <c r="R18" s="21">
+        <v>371.17079999999999</v>
+      </c>
+      <c r="S18" s="21">
+        <v>375.92939999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B19" s="2">
+        <v>690</v>
+      </c>
+      <c r="C19" s="21">
+        <v>313.4187</v>
+      </c>
+      <c r="D19" s="21">
+        <v>318.39360000000005</v>
+      </c>
+      <c r="E19" s="21">
+        <v>323.36849999999998</v>
+      </c>
+      <c r="F19" s="21">
+        <v>328.34339999999997</v>
+      </c>
+      <c r="G19" s="21">
+        <v>333.31830000000002</v>
+      </c>
+      <c r="H19" s="21">
+        <v>338.29320000000001</v>
+      </c>
+      <c r="I19" s="21">
+        <v>343.26810000000006</v>
+      </c>
+      <c r="J19" s="21">
+        <v>348.24300000000005</v>
+      </c>
+      <c r="K19" s="21">
+        <v>353.21789999999999</v>
+      </c>
+      <c r="L19" s="21">
+        <v>358.19279999999998</v>
+      </c>
+      <c r="M19" s="21">
+        <v>363.16769999999997</v>
+      </c>
+      <c r="N19" s="21">
+        <v>368.14259999999996</v>
+      </c>
+      <c r="O19" s="21">
+        <v>373.11750000000001</v>
+      </c>
+      <c r="P19" s="21">
+        <v>378.0924</v>
+      </c>
+      <c r="Q19" s="21">
+        <v>383.06729999999999</v>
+      </c>
+      <c r="R19" s="21">
+        <v>388.04219999999998</v>
+      </c>
+      <c r="S19" s="21">
+        <v>393.01709999999997</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C6:S19">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5733,8 +8494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40285E56-8A2C-4564-8575-7360840FD5FD}">
   <dimension ref="B2:S19"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="86" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A16" zoomScale="86" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5846,56 +8607,56 @@
       <c r="B6" s="2">
         <v>270</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="21">
         <f t="dataTable" ref="C6:S19" dt2D="1" dtr="1" r1="C3" r2="B3"/>
         <v>35.559000000000005</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="21">
         <v>44.448749999999997</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="21">
         <v>53.338499999999996</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="21">
         <v>62.22825000000001</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="21">
         <v>71.118000000000009</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="21">
         <v>80.007750000000001</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="21">
         <v>88.897499999999994</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="21">
         <v>97.78725</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="21">
         <v>106.67699999999999</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="21">
         <v>115.56675</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="21">
         <v>124.45650000000002</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="21">
         <v>133.34625</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="21">
         <v>142.23600000000002</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="21">
         <v>151.12575000000001</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="21">
         <v>160.0155</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="21">
         <v>168.90525</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="21">
         <v>177.79499999999999</v>
       </c>
     </row>
@@ -5903,55 +8664,55 @@
       <c r="B7" s="2">
         <v>280</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="21">
         <v>36.876000000000005</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="21">
         <v>46.094999999999999</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="21">
         <v>55.314</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="21">
         <v>64.533000000000001</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="21">
         <v>73.75200000000001</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="21">
         <v>82.971000000000004</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="21">
         <v>92.19</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="21">
         <v>101.40900000000001</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="21">
         <v>110.628</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="21">
         <v>119.84699999999999</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="21">
         <v>129.066</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="21">
         <v>138.285</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="21">
         <v>147.50400000000002</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="21">
         <v>156.72300000000001</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="21">
         <v>165.94200000000001</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="21">
         <v>175.161</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="21">
         <v>184.38</v>
       </c>
     </row>
@@ -5959,55 +8720,55 @@
       <c r="B8" s="2">
         <v>290</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="21">
         <v>38.192999999999998</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="21">
         <v>47.741250000000001</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="21">
         <v>57.289499999999997</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="21">
         <v>66.83775</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="21">
         <v>76.385999999999996</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="21">
         <v>85.934249999999992</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="21">
         <v>95.482500000000002</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="21">
         <v>105.03075</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="21">
         <v>114.57899999999999</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="21">
         <v>124.12725</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="21">
         <v>133.6755</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="21">
         <v>143.22375</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="21">
         <v>152.77199999999999</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="21">
         <v>162.32025000000002</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="21">
         <v>171.86849999999998</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8" s="21">
         <v>181.41675000000001</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S8" s="21">
         <v>190.965</v>
       </c>
     </row>
@@ -6015,55 +8776,55 @@
       <c r="B9" s="2">
         <v>300</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="21">
         <v>39.51</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="21">
         <v>49.387500000000003</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="21">
         <v>59.265000000000001</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="21">
         <v>69.142500000000013</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="21">
         <v>79.02</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="21">
         <v>88.897499999999994</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="21">
         <v>98.775000000000006</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="21">
         <v>108.6525</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="21">
         <v>118.53</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="21">
         <v>128.4075</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="21">
         <v>138.28500000000003</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9" s="21">
         <v>148.16249999999999</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="21">
         <v>158.04</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="21">
         <v>167.91750000000002</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="21">
         <v>177.79499999999999</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="21">
         <v>187.67249999999999</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9" s="21">
         <v>197.55</v>
       </c>
     </row>
@@ -6071,55 +8832,55 @@
       <c r="B10" s="2">
         <v>310</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="21">
         <v>40.826999999999998</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="21">
         <v>51.033749999999998</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="21">
         <v>61.24049999999999</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="21">
         <v>71.447250000000011</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="21">
         <v>81.653999999999996</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="21">
         <v>91.860749999999996</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="21">
         <v>102.0675</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="21">
         <v>112.27425000000001</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="21">
         <v>122.48099999999998</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="21">
         <v>132.68775000000002</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="21">
         <v>142.89450000000002</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10" s="21">
         <v>153.10124999999999</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="21">
         <v>163.30799999999999</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="21">
         <v>173.51475000000002</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10" s="21">
         <v>183.72149999999999</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10" s="21">
         <v>193.92824999999999</v>
       </c>
-      <c r="S10" s="1">
+      <c r="S10" s="21">
         <v>204.13499999999999</v>
       </c>
     </row>
@@ -6127,55 +8888,55 @@
       <c r="B11" s="2">
         <v>320</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="21">
         <v>42.144000000000005</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="21">
         <v>52.68</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="21">
         <v>63.215999999999994</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="21">
         <v>73.75200000000001</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="21">
         <v>84.288000000000011</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="21">
         <v>94.823999999999984</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="21">
         <v>105.36</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="21">
         <v>115.89600000000002</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="21">
         <v>126.43199999999999</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="21">
         <v>136.96800000000002</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="21">
         <v>147.50400000000002</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11" s="21">
         <v>158.04</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="21">
         <v>168.57600000000002</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="21">
         <v>179.11200000000002</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="21">
         <v>189.64799999999997</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11" s="21">
         <v>200.184</v>
       </c>
-      <c r="S11" s="1">
+      <c r="S11" s="21">
         <v>210.72</v>
       </c>
     </row>
@@ -6183,55 +8944,55 @@
       <c r="B12" s="2">
         <v>330</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="21">
         <v>43.461000000000006</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="21">
         <v>54.326250000000002</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="21">
         <v>65.191500000000005</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="21">
         <v>76.056750000000008</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="21">
         <v>86.922000000000011</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="21">
         <v>97.78725</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="21">
         <v>108.6525</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="21">
         <v>119.51774999999999</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="21">
         <v>130.38300000000001</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="21">
         <v>141.24824999999998</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="21">
         <v>152.11350000000002</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12" s="21">
         <v>162.97874999999999</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="21">
         <v>173.84400000000002</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="21">
         <v>184.70925</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12" s="21">
         <v>195.5745</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R12" s="21">
         <v>206.43975</v>
       </c>
-      <c r="S12" s="1">
+      <c r="S12" s="21">
         <v>217.30500000000001</v>
       </c>
     </row>
@@ -6239,55 +9000,55 @@
       <c r="B13" s="2">
         <v>340</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="21">
         <v>44.777999999999999</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="21">
         <v>55.972499999999997</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="21">
         <v>67.167000000000002</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="21">
         <v>78.361500000000007</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="21">
         <v>89.555999999999997</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="21">
         <v>100.75049999999999</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="21">
         <v>111.94499999999999</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="21">
         <v>123.1395</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="21">
         <v>134.334</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="21">
         <v>145.52850000000001</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="21">
         <v>156.72300000000001</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N13" s="21">
         <v>167.91749999999999</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="21">
         <v>179.11199999999999</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="21">
         <v>190.3065</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13" s="21">
         <v>201.50099999999998</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R13" s="21">
         <v>212.69549999999998</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S13" s="21">
         <v>223.89</v>
       </c>
     </row>
@@ -6295,55 +9056,55 @@
       <c r="B14" s="2">
         <v>350</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="21">
         <v>46.094999999999999</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="21">
         <v>57.618749999999999</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="21">
         <v>69.142499999999998</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="21">
         <v>80.666250000000005</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="21">
         <v>92.19</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="21">
         <v>103.71375</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="21">
         <v>115.2375</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="21">
         <v>126.76125</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="21">
         <v>138.285</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="21">
         <v>149.80875</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="21">
         <v>161.33250000000001</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14" s="21">
         <v>172.85624999999999</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="21">
         <v>184.38</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="21">
         <v>195.90375000000003</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14" s="21">
         <v>207.42750000000001</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R14" s="21">
         <v>218.95124999999999</v>
       </c>
-      <c r="S14" s="1">
+      <c r="S14" s="21">
         <v>230.47499999999999</v>
       </c>
     </row>
@@ -6351,55 +9112,55 @@
       <c r="B15" s="2">
         <v>360</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="21">
         <v>47.411999999999999</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="21">
         <v>59.265000000000001</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="21">
         <v>71.117999999999995</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="21">
         <v>82.971000000000004</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="21">
         <v>94.823999999999998</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="21">
         <v>106.67699999999999</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="21">
         <v>118.53</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="21">
         <v>130.38300000000001</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="21">
         <v>142.23599999999999</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="21">
         <v>154.08900000000003</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="21">
         <v>165.94200000000001</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N15" s="21">
         <v>177.79499999999999</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="21">
         <v>189.648</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15" s="21">
         <v>201.501</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15" s="21">
         <v>213.35399999999998</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R15" s="21">
         <v>225.20700000000002</v>
       </c>
-      <c r="S15" s="1">
+      <c r="S15" s="21">
         <v>237.06</v>
       </c>
     </row>
@@ -6407,55 +9168,55 @@
       <c r="B16" s="2">
         <v>370</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="21">
         <v>48.728999999999999</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="21">
         <v>60.911250000000003</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="21">
         <v>73.093499999999992</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="21">
         <v>85.275750000000002</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="21">
         <v>97.457999999999998</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="21">
         <v>109.64024999999999</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="21">
         <v>121.82250000000001</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="21">
         <v>134.00475</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="21">
         <v>146.18699999999998</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="21">
         <v>158.36924999999999</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="21">
         <v>170.5515</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N16" s="21">
         <v>182.73374999999999</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16" s="21">
         <v>194.916</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="21">
         <v>207.09825000000001</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16" s="21">
         <v>219.28049999999999</v>
       </c>
-      <c r="R16" s="1">
+      <c r="R16" s="21">
         <v>231.46275</v>
       </c>
-      <c r="S16" s="1">
+      <c r="S16" s="21">
         <v>243.64500000000001</v>
       </c>
     </row>
@@ -6463,55 +9224,55 @@
       <c r="B17" s="2">
         <v>380</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="21">
         <v>50.046000000000006</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="21">
         <v>62.557499999999997</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="21">
         <v>75.069000000000003</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="21">
         <v>87.580500000000001</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="21">
         <v>100.09200000000001</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="21">
         <v>112.60349999999998</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="21">
         <v>125.11499999999999</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="21">
         <v>137.62649999999999</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="21">
         <v>150.13800000000001</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="21">
         <v>162.64949999999999</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="21">
         <v>175.161</v>
       </c>
-      <c r="N17" s="1">
+      <c r="N17" s="21">
         <v>187.67249999999999</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17" s="21">
         <v>200.18400000000003</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17" s="21">
         <v>212.69550000000004</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q17" s="21">
         <v>225.20699999999997</v>
       </c>
-      <c r="R17" s="1">
+      <c r="R17" s="21">
         <v>237.71850000000001</v>
       </c>
-      <c r="S17" s="1">
+      <c r="S17" s="21">
         <v>250.23</v>
       </c>
     </row>
@@ -6519,55 +9280,55 @@
       <c r="B18" s="2">
         <v>390</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="21">
         <v>51.363</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="21">
         <v>64.203749999999999</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="21">
         <v>77.044499999999999</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="21">
         <v>89.885250000000013</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="21">
         <v>102.726</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="21">
         <v>115.56675</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="21">
         <v>128.4075</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="21">
         <v>141.24824999999998</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="21">
         <v>154.089</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="21">
         <v>166.92975000000001</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="21">
         <v>179.77050000000003</v>
       </c>
-      <c r="N18" s="1">
+      <c r="N18" s="21">
         <v>192.61125000000001</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18" s="21">
         <v>205.452</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P18" s="21">
         <v>218.29275000000004</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q18" s="21">
         <v>231.1335</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R18" s="21">
         <v>243.97424999999998</v>
       </c>
-      <c r="S18" s="1">
+      <c r="S18" s="21">
         <v>256.815</v>
       </c>
     </row>
@@ -6575,55 +9336,55 @@
       <c r="B19" s="2">
         <v>400</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="21">
         <v>52.68</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="21">
         <v>65.849999999999994</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="21">
         <v>79.02</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="21">
         <v>92.190000000000012</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="21">
         <v>105.36</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="21">
         <v>118.53</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="21">
         <v>131.69999999999999</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="21">
         <v>144.87</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="21">
         <v>158.04</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19" s="21">
         <v>171.21</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19" s="21">
         <v>184.38000000000002</v>
       </c>
-      <c r="N19" s="1">
+      <c r="N19" s="21">
         <v>197.55</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19" s="21">
         <v>210.72</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19" s="21">
         <v>223.89</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19" s="21">
         <v>237.06</v>
       </c>
-      <c r="R19" s="1">
+      <c r="R19" s="21">
         <v>250.23</v>
       </c>
-      <c r="S19" s="1">
+      <c r="S19" s="21">
         <v>263.39999999999998</v>
       </c>
     </row>
@@ -6646,6 +9407,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100ED077DFD7547DE40BB19C407130BA958" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="30b98e02899bc55dc199837b6108a876">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="146f35c0-5549-4b11-9385-b5bad1d7a6e6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8899f713b441a45dc39a6408faeb9f10" ns3:_="">
     <xsd:import namespace="146f35c0-5549-4b11-9385-b5bad1d7a6e6"/>
@@ -6823,22 +9599,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0D16BC9-63C7-4ECC-819E-4E697176BB59}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4BB1E92-878A-4494-BE21-999963AA96A5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C08BEF9B-E79F-4EED-9FBF-FF73572E04B2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6854,21 +9632,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4BB1E92-878A-4494-BE21-999963AA96A5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0D16BC9-63C7-4ECC-819E-4E697176BB59}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Sensitivity Analysis of Marketing Strategies.xlsx
+++ b/Sensitivity Analysis of Marketing Strategies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LIYAO\OneDrive - Singapore Management University\SMA G7\Group Project\Github\SMA-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92560B06-798D-4FC3-9F0B-9FF2B63F9308}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B92DE9-50AD-4EF6-B33A-3BC3BA51F755}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{47D6FB81-707F-442F-B7B5-908A315AAEB2}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="SEO" sheetId="4" r:id="rId2"/>
     <sheet name="Google " sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="11">
   <si>
     <t xml:space="preserve">Revenue </t>
   </si>
@@ -54,15 +54,29 @@
   <si>
     <t xml:space="preserve">Ave. Mains (Spicy) </t>
   </si>
+  <si>
+    <t xml:space="preserve">Cost </t>
+  </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Total Customer</t>
+  </si>
+  <si>
+    <t>No. of Customers</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -163,7 +177,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -180,7 +194,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -193,7 +206,43 @@
     <xf numFmtId="44" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -317,7 +366,7 @@
             <c:numRef>
               <c:f>'Social Media'!$C$6:$S$6</c:f>
               <c:numCache>
-                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>230.47499999999999</c:v>
@@ -399,7 +448,7 @@
             <c:numRef>
               <c:f>'Social Media'!$C$7:$S$7</c:f>
               <c:numCache>
-                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>246.9375</c:v>
@@ -481,7 +530,7 @@
             <c:numRef>
               <c:f>'Social Media'!$C$8:$S$8</c:f>
               <c:numCache>
-                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>263.39999999999998</c:v>
@@ -563,7 +612,7 @@
             <c:numRef>
               <c:f>'Social Media'!$C$9:$S$9</c:f>
               <c:numCache>
-                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>279.86250000000001</c:v>
@@ -645,7 +694,7 @@
             <c:numRef>
               <c:f>'Social Media'!$C$10:$S$10</c:f>
               <c:numCache>
-                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>296.32499999999999</c:v>
@@ -727,7 +776,7 @@
             <c:numRef>
               <c:f>'Social Media'!$C$11:$S$11</c:f>
               <c:numCache>
-                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>312.78750000000002</c:v>
@@ -811,7 +860,7 @@
             <c:numRef>
               <c:f>'Social Media'!$C$12:$S$12</c:f>
               <c:numCache>
-                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>329.25</c:v>
@@ -895,7 +944,7 @@
             <c:numRef>
               <c:f>'Social Media'!$C$13:$S$13</c:f>
               <c:numCache>
-                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>345.71249999999998</c:v>
@@ -979,7 +1028,7 @@
             <c:numRef>
               <c:f>'Social Media'!$C$14:$S$14</c:f>
               <c:numCache>
-                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>362.17500000000001</c:v>
@@ -1063,7 +1112,7 @@
             <c:numRef>
               <c:f>'Social Media'!$C$15:$S$15</c:f>
               <c:numCache>
-                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>378.63749999999999</c:v>
@@ -1147,7 +1196,7 @@
             <c:numRef>
               <c:f>'Social Media'!$C$16:$S$16</c:f>
               <c:numCache>
-                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>395.1</c:v>
@@ -1231,7 +1280,7 @@
             <c:numRef>
               <c:f>'Social Media'!$C$17:$S$17</c:f>
               <c:numCache>
-                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>411.5625</c:v>
@@ -1316,7 +1365,7 @@
             <c:numRef>
               <c:f>'Social Media'!$C$18:$S$18</c:f>
               <c:numCache>
-                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>428.02499999999998</c:v>
@@ -1401,7 +1450,7 @@
             <c:numRef>
               <c:f>'Social Media'!$C$19:$S$19</c:f>
               <c:numCache>
-                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>444.48750000000001</c:v>
@@ -1547,7 +1596,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1764,7 +1813,7 @@
             <c:numRef>
               <c:f>SEO!$C$6:$S$6</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>136.26899999999998</c:v>
@@ -1846,7 +1895,7 @@
             <c:numRef>
               <c:f>SEO!$C$7:$S$7</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>149.89589999999998</c:v>
@@ -1928,7 +1977,7 @@
             <c:numRef>
               <c:f>SEO!$C$8:$S$8</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>163.52279999999999</c:v>
@@ -2010,7 +2059,7 @@
             <c:numRef>
               <c:f>SEO!$C$9:$S$9</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>177.1497</c:v>
@@ -2092,7 +2141,7 @@
             <c:numRef>
               <c:f>SEO!$C$10:$S$10</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>190.7766</c:v>
@@ -2174,7 +2223,7 @@
             <c:numRef>
               <c:f>SEO!$C$11:$S$11</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>204.40350000000001</c:v>
@@ -2258,7 +2307,7 @@
             <c:numRef>
               <c:f>SEO!$C$12:$S$12</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>218.03040000000001</c:v>
@@ -2342,7 +2391,7 @@
             <c:numRef>
               <c:f>SEO!$C$13:$S$13</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>231.65730000000002</c:v>
@@ -2426,7 +2475,7 @@
             <c:numRef>
               <c:f>SEO!$C$14:$S$14</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>245.28420000000003</c:v>
@@ -2510,7 +2559,7 @@
             <c:numRef>
               <c:f>SEO!$C$15:$S$15</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>258.91110000000003</c:v>
@@ -2594,7 +2643,7 @@
             <c:numRef>
               <c:f>SEO!$C$16:$S$16</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>272.53799999999995</c:v>
@@ -2678,7 +2727,7 @@
             <c:numRef>
               <c:f>SEO!$C$17:$S$17</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>286.16489999999999</c:v>
@@ -2763,7 +2812,7 @@
             <c:numRef>
               <c:f>SEO!$C$18:$S$18</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>299.79179999999997</c:v>
@@ -2848,7 +2897,7 @@
             <c:numRef>
               <c:f>SEO!$C$19:$S$19</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>313.4187</c:v>
@@ -2994,7 +3043,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="&quot;$&quot;#,##0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3216,7 +3265,7 @@
             <c:numRef>
               <c:f>'Google '!$C$6:$S$6</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>35.559000000000005</c:v>
@@ -3298,7 +3347,7 @@
             <c:numRef>
               <c:f>'Google '!$C$7:$S$7</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>36.876000000000005</c:v>
@@ -3380,7 +3429,7 @@
             <c:numRef>
               <c:f>'Google '!$C$8:$S$8</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>38.192999999999998</c:v>
@@ -3462,7 +3511,7 @@
             <c:numRef>
               <c:f>'Google '!$C$9:$S$9</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>39.51</c:v>
@@ -3544,7 +3593,7 @@
             <c:numRef>
               <c:f>'Google '!$C$10:$S$10</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>40.826999999999998</c:v>
@@ -3626,7 +3675,7 @@
             <c:numRef>
               <c:f>'Google '!$C$11:$S$11</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>42.144000000000005</c:v>
@@ -3710,7 +3759,7 @@
             <c:numRef>
               <c:f>'Google '!$C$12:$S$12</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>43.461000000000006</c:v>
@@ -3794,7 +3843,7 @@
             <c:numRef>
               <c:f>'Google '!$C$13:$S$13</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44.777999999999999</c:v>
@@ -3878,7 +3927,7 @@
             <c:numRef>
               <c:f>'Google '!$C$14:$S$14</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>46.094999999999999</c:v>
@@ -3962,7 +4011,7 @@
             <c:numRef>
               <c:f>'Google '!$C$15:$S$15</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>47.411999999999999</c:v>
@@ -4046,7 +4095,7 @@
             <c:numRef>
               <c:f>'Google '!$C$16:$S$16</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>48.728999999999999</c:v>
@@ -4130,7 +4179,7 @@
             <c:numRef>
               <c:f>'Google '!$C$17:$S$17</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>50.046000000000006</c:v>
@@ -4215,7 +4264,7 @@
             <c:numRef>
               <c:f>'Google '!$C$18:$S$18</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>51.363</c:v>
@@ -4300,7 +4349,7 @@
             <c:numRef>
               <c:f>'Google '!$C$19:$S$19</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>52.68</c:v>
@@ -4446,7 +4495,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="&quot;$&quot;#,##0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4478,6 +4527,1423 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="708261728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Google '!$C$44:$S$44</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D444-4CCE-98FB-173DE9D10EFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Google '!$C$45:$S$45</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D444-4CCE-98FB-173DE9D10EFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Google '!$C$46:$S$46</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D444-4CCE-98FB-173DE9D10EFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Google '!$C$47:$S$47</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D444-4CCE-98FB-173DE9D10EFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Google '!$C$48:$S$48</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D444-4CCE-98FB-173DE9D10EFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Google '!$C$49:$S$49</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D444-4CCE-98FB-173DE9D10EFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Google '!$C$50:$S$50</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-D444-4CCE-98FB-173DE9D10EFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Google '!$C$51:$S$51</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-D444-4CCE-98FB-173DE9D10EFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Google '!$C$52:$S$52</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-D444-4CCE-98FB-173DE9D10EFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Google '!$C$53:$S$53</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-D444-4CCE-98FB-173DE9D10EFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Google '!$C$54:$S$54</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-D444-4CCE-98FB-173DE9D10EFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Google '!$C$55:$S$55</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-D444-4CCE-98FB-173DE9D10EFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Google '!$C$56:$S$56</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-D444-4CCE-98FB-173DE9D10EFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Google '!$C$57:$S$57</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-D444-4CCE-98FB-173DE9D10EFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="795069032"/>
+        <c:axId val="795070672"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="795069032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="795070672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="795070672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="795069032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4645,6 +6111,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6232,20 +7738,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>654326</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>589906</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>183688</xdr:rowOff>
+      <xdr:rowOff>110065</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>55218</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>36810</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>294493</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>147245</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6347,6 +8369,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>165396</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>35000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>447454</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>9304</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B449580B-6A3C-45AC-A921-4AFC2447AA83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6652,10 +8710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C3465F-F7FA-4C05-9779-9F86EE094B58}">
-  <dimension ref="B2:S19"/>
+  <dimension ref="B2:S66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6683,27 +8741,33 @@
       <c r="H2" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="J2" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>100</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>3.1E-2</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <f>(G3+H3)/2</f>
         <v>6.585</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="17">
         <f>PRODUCT(B3:D3)</f>
         <v>20.413499999999999</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="11">
         <v>5.96</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="11">
         <v>7.21</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.35">
@@ -6711,845 +8775,1746 @@
         <f>E3</f>
         <v>20.413499999999999</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <v>0.5</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <v>1</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>1.5</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="12">
         <v>2</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="12">
         <v>2.5</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="12">
         <v>3</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="12">
         <v>3.5</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="12">
         <v>4</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="12">
         <v>4.5</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="12">
         <v>5</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="12">
         <v>5.5</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5" s="12">
         <v>6</v>
       </c>
-      <c r="O5" s="13">
+      <c r="O5" s="12">
         <v>6.5</v>
       </c>
-      <c r="P5" s="13">
+      <c r="P5" s="12">
         <v>7</v>
       </c>
-      <c r="Q5" s="13">
+      <c r="Q5" s="12">
         <v>7.5</v>
       </c>
-      <c r="R5" s="13">
+      <c r="R5" s="12">
         <v>8</v>
       </c>
-      <c r="S5" s="13">
+      <c r="S5" s="12">
         <v>8.5</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>70</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="21">
         <f t="dataTable" ref="C6:S19" dt2D="1" dtr="1" r1="C3" r2="B3"/>
         <v>230.47499999999999</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="21">
         <v>460.95</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="21">
         <v>691.42499999999995</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="21">
         <v>921.9</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="21">
         <v>1152.375</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="21">
         <v>1382.85</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="21">
         <v>1613.325</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="21">
         <v>1843.8</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="21">
         <v>2074.2750000000001</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="21">
         <v>2304.75</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="21">
         <v>2535.2249999999999</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="21">
         <v>2765.7</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="21">
         <v>2996.1750000000002</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="21">
         <v>3226.65</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="Q6" s="21">
         <v>3457.125</v>
       </c>
-      <c r="R6" s="8">
+      <c r="R6" s="21">
         <v>3687.6</v>
       </c>
-      <c r="S6" s="8">
+      <c r="S6" s="21">
         <v>3918.0749999999998</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <v>75</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="21">
         <v>246.9375</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="21">
         <v>493.875</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="21">
         <v>740.8125</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="21">
         <v>987.75</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="21">
         <v>1234.6875</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="21">
         <v>1481.625</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="21">
         <v>1728.5625</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="21">
         <v>1975.5</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="21">
         <v>2222.4375</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="21">
         <v>2469.375</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="21">
         <v>2716.3125</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="21">
         <v>2963.25</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="21">
         <v>3210.1875</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="21">
         <v>3457.125</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="Q7" s="21">
         <v>3704.0625</v>
       </c>
-      <c r="R7" s="8">
+      <c r="R7" s="21">
         <v>3951</v>
       </c>
-      <c r="S7" s="8">
+      <c r="S7" s="21">
         <v>4197.9375</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B8" s="15">
+      <c r="B8" s="14">
         <v>80</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="21">
         <v>263.39999999999998</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="21">
         <v>526.79999999999995</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="21">
         <v>790.2</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="21">
         <v>1053.5999999999999</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="21">
         <v>1317</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="21">
         <v>1580.4</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="21">
         <v>1843.8</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="21">
         <v>2107.1999999999998</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="21">
         <v>2370.6</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="21">
         <v>2634</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="21">
         <v>2897.4</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="21">
         <v>3160.8</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8" s="21">
         <v>3424.2</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="21">
         <v>3687.6</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="Q8" s="21">
         <v>3951</v>
       </c>
-      <c r="R8" s="8">
+      <c r="R8" s="21">
         <v>4214.3999999999996</v>
       </c>
-      <c r="S8" s="8">
+      <c r="S8" s="21">
         <v>4477.8</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B9" s="15">
+      <c r="B9" s="14">
         <v>85</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="21">
         <v>279.86250000000001</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="21">
         <v>559.72500000000002</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="21">
         <v>839.58749999999998</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="21">
         <v>1119.45</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="21">
         <v>1399.3125</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="21">
         <v>1679.175</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="21">
         <v>1959.0374999999999</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="21">
         <v>2238.9</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="21">
         <v>2518.7624999999998</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="21">
         <v>2798.625</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="21">
         <v>3078.4875000000002</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="21">
         <v>3358.35</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="21">
         <v>3638.2125000000001</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="21">
         <v>3918.0749999999998</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="Q9" s="21">
         <v>4197.9375</v>
       </c>
-      <c r="R9" s="8">
+      <c r="R9" s="21">
         <v>4477.8</v>
       </c>
-      <c r="S9" s="8">
+      <c r="S9" s="21">
         <v>4757.6625000000004</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B10" s="15">
+      <c r="B10" s="14">
         <v>90</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="21">
         <v>296.32499999999999</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="21">
         <v>592.65</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="21">
         <v>888.97500000000002</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="21">
         <v>1185.3</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="21">
         <v>1481.625</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="21">
         <v>1777.95</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="21">
         <v>2074.2750000000001</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="21">
         <v>2370.6</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="21">
         <v>2666.9250000000002</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="21">
         <v>2963.25</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="21">
         <v>3259.5749999999998</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="21">
         <v>3555.9</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O10" s="21">
         <v>3852.2249999999999</v>
       </c>
-      <c r="P10" s="8">
+      <c r="P10" s="21">
         <v>4148.55</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="Q10" s="21">
         <v>4444.875</v>
       </c>
-      <c r="R10" s="8">
+      <c r="R10" s="21">
         <v>4741.2</v>
       </c>
-      <c r="S10" s="8">
+      <c r="S10" s="21">
         <v>5037.5249999999996</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B11" s="15">
+      <c r="B11" s="14">
         <v>95</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="21">
         <v>312.78750000000002</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="21">
         <v>625.57500000000005</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="21">
         <v>938.36249999999995</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="21">
         <v>1251.1500000000001</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="21">
         <v>1563.9375</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="21">
         <v>1876.7249999999999</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="21">
         <v>2189.5124999999998</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="21">
         <v>2502.3000000000002</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="21">
         <v>2815.0875000000001</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="21">
         <v>3127.875</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="21">
         <v>3440.6624999999999</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="21">
         <v>3753.45</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O11" s="21">
         <v>4066.2375000000002</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="21">
         <v>4379.0249999999996</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="Q11" s="21">
         <v>4691.8125</v>
       </c>
-      <c r="R11" s="8">
+      <c r="R11" s="21">
         <v>5004.6000000000004</v>
       </c>
-      <c r="S11" s="8">
+      <c r="S11" s="21">
         <v>5317.3874999999998</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B12" s="15">
+      <c r="B12" s="14">
         <v>100</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="21">
         <v>329.25</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="21">
         <v>658.5</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="21">
         <v>987.75</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="21">
         <v>1317</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="21">
         <v>1646.25</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="21">
         <v>1975.5</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="21">
         <v>2304.75</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="21">
         <v>2634</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="21">
         <v>2963.25</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="21">
         <v>3292.5</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="21">
         <v>3621.75</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="21">
         <v>3951</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O12" s="21">
         <v>4280.25</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P12" s="21">
         <v>4609.5</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="Q12" s="21">
         <v>4938.75</v>
       </c>
-      <c r="R12" s="8">
+      <c r="R12" s="21">
         <v>5268</v>
       </c>
-      <c r="S12" s="8">
+      <c r="S12" s="21">
         <v>5597.25</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B13" s="15">
+      <c r="B13" s="14">
         <v>105</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="21">
         <v>345.71249999999998</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="21">
         <v>691.42499999999995</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="21">
         <v>1037.1375</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="21">
         <v>1382.85</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="21">
         <v>1728.5625</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="21">
         <v>2074.2750000000001</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="21">
         <v>2419.9875000000002</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="21">
         <v>2765.7</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="21">
         <v>3111.4124999999999</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="21">
         <v>3457.125</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="21">
         <v>3802.8375000000001</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13" s="21">
         <v>4148.55</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O13" s="21">
         <v>4494.2624999999998</v>
       </c>
-      <c r="P13" s="8">
+      <c r="P13" s="21">
         <v>4839.9750000000004</v>
       </c>
-      <c r="Q13" s="8">
+      <c r="Q13" s="21">
         <v>5185.6875</v>
       </c>
-      <c r="R13" s="8">
+      <c r="R13" s="21">
         <v>5531.4</v>
       </c>
-      <c r="S13" s="8">
+      <c r="S13" s="21">
         <v>5877.1125000000002</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B14" s="15">
+      <c r="B14" s="14">
         <v>110</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="21">
         <v>362.17500000000001</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="21">
         <v>724.35</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="21">
         <v>1086.5250000000001</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="21">
         <v>1448.7</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="21">
         <v>1810.875</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="21">
         <v>2173.0500000000002</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="21">
         <v>2535.2249999999999</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="21">
         <v>2897.4</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="21">
         <v>3259.5749999999998</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="21">
         <v>3621.75</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="21">
         <v>3983.9250000000002</v>
       </c>
-      <c r="N14" s="8">
+      <c r="N14" s="21">
         <v>4346.1000000000004</v>
       </c>
-      <c r="O14" s="8">
+      <c r="O14" s="21">
         <v>4708.2749999999996</v>
       </c>
-      <c r="P14" s="8">
+      <c r="P14" s="21">
         <v>5070.45</v>
       </c>
-      <c r="Q14" s="8">
+      <c r="Q14" s="21">
         <v>5432.625</v>
       </c>
-      <c r="R14" s="8">
+      <c r="R14" s="21">
         <v>5794.8</v>
       </c>
-      <c r="S14" s="8">
+      <c r="S14" s="21">
         <v>6156.9750000000004</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B15" s="15">
+      <c r="B15" s="14">
         <v>115</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="21">
         <v>378.63749999999999</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="21">
         <v>757.27499999999998</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="21">
         <v>1135.9124999999999</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="21">
         <v>1514.55</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="21">
         <v>1893.1875</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="21">
         <v>2271.8249999999998</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="21">
         <v>2650.4625000000001</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="21">
         <v>3029.1</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="21">
         <v>3407.7375000000002</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="21">
         <v>3786.375</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="21">
         <v>4165.0124999999998</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N15" s="21">
         <v>4543.6499999999996</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O15" s="21">
         <v>4922.2875000000004</v>
       </c>
-      <c r="P15" s="8">
+      <c r="P15" s="21">
         <v>5300.9250000000002</v>
       </c>
-      <c r="Q15" s="8">
+      <c r="Q15" s="21">
         <v>5679.5625</v>
       </c>
-      <c r="R15" s="8">
+      <c r="R15" s="21">
         <v>6058.2</v>
       </c>
-      <c r="S15" s="8">
+      <c r="S15" s="21">
         <v>6436.8374999999996</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B16" s="15">
+      <c r="B16" s="14">
         <v>120</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="21">
         <v>395.1</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="21">
         <v>790.2</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="21">
         <v>1185.3</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="21">
         <v>1580.4</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="21">
         <v>1975.5</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="21">
         <v>2370.6</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="21">
         <v>2765.7</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="21">
         <v>3160.8</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="21">
         <v>3555.9</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="21">
         <v>3951</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="21">
         <v>4346.1000000000004</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16" s="21">
         <v>4741.2</v>
       </c>
-      <c r="O16" s="8">
+      <c r="O16" s="21">
         <v>5136.3</v>
       </c>
-      <c r="P16" s="8">
+      <c r="P16" s="21">
         <v>5531.4</v>
       </c>
-      <c r="Q16" s="8">
+      <c r="Q16" s="21">
         <v>5926.5</v>
       </c>
-      <c r="R16" s="8">
+      <c r="R16" s="21">
         <v>6321.6</v>
       </c>
-      <c r="S16" s="8">
+      <c r="S16" s="21">
         <v>6716.7</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B17" s="15">
+      <c r="B17" s="14">
         <v>125</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="21">
         <v>411.5625</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="21">
         <v>823.125</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="21">
         <v>1234.6875</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="21">
         <v>1646.25</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="21">
         <v>2057.8125</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="21">
         <v>2469.375</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="21">
         <v>2880.9375</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="21">
         <v>3292.5</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="21">
         <v>3704.0625</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17" s="21">
         <v>4115.625</v>
       </c>
-      <c r="M17" s="8">
+      <c r="M17" s="21">
         <v>4527.1875</v>
       </c>
-      <c r="N17" s="8">
+      <c r="N17" s="21">
         <v>4938.75</v>
       </c>
-      <c r="O17" s="8">
+      <c r="O17" s="21">
         <v>5350.3125</v>
       </c>
-      <c r="P17" s="8">
+      <c r="P17" s="21">
         <v>5761.875</v>
       </c>
-      <c r="Q17" s="8">
+      <c r="Q17" s="21">
         <v>6173.4375</v>
       </c>
-      <c r="R17" s="8">
+      <c r="R17" s="21">
         <v>6585</v>
       </c>
-      <c r="S17" s="8">
+      <c r="S17" s="21">
         <v>6996.5625</v>
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B18" s="15">
+      <c r="B18" s="14">
         <v>130</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="21">
         <v>428.02499999999998</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="21">
         <v>856.05</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="21">
         <v>1284.075</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="21">
         <v>1712.1</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="21">
         <v>2140.125</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="21">
         <v>2568.15</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="21">
         <v>2996.1750000000002</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="21">
         <v>3424.2</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="21">
         <v>3852.2249999999999</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18" s="21">
         <v>4280.25</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="21">
         <v>4708.2749999999996</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="21">
         <v>5136.3</v>
       </c>
-      <c r="O18" s="8">
+      <c r="O18" s="21">
         <v>5564.3249999999998</v>
       </c>
-      <c r="P18" s="8">
+      <c r="P18" s="21">
         <v>5992.35</v>
       </c>
-      <c r="Q18" s="8">
+      <c r="Q18" s="21">
         <v>6420.375</v>
       </c>
-      <c r="R18" s="8">
+      <c r="R18" s="21">
         <v>6848.4</v>
       </c>
-      <c r="S18" s="8">
+      <c r="S18" s="21">
         <v>7276.4250000000002</v>
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B19" s="15">
+      <c r="B19" s="14">
         <v>135</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="21">
         <v>444.48750000000001</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="21">
         <v>888.97500000000002</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="21">
         <v>1333.4625000000001</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="21">
         <v>1777.95</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="21">
         <v>2222.4375</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="21">
         <v>2666.9250000000002</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="21">
         <v>3111.4124999999999</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="21">
         <v>3555.9</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="21">
         <v>4000.3874999999998</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="21">
         <v>4444.875</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19" s="21">
         <v>4889.3625000000002</v>
       </c>
-      <c r="N19" s="8">
+      <c r="N19" s="21">
         <v>5333.85</v>
       </c>
-      <c r="O19" s="8">
+      <c r="O19" s="21">
         <v>5778.3374999999996</v>
       </c>
-      <c r="P19" s="8">
+      <c r="P19" s="21">
         <v>6222.8249999999998</v>
       </c>
-      <c r="Q19" s="8">
+      <c r="Q19" s="21">
         <v>6667.3125</v>
       </c>
-      <c r="R19" s="8">
+      <c r="R19" s="21">
         <v>7111.8</v>
       </c>
-      <c r="S19" s="8">
+      <c r="S19" s="21">
         <v>7556.2875000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19" ht="21" x14ac:dyDescent="0.35">
+      <c r="B49" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="23"/>
+      <c r="F49" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+    </row>
+    <row r="50" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B50" s="30">
+        <v>75</v>
+      </c>
+      <c r="C50" s="31">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D50" s="27">
+        <f>C50*B50</f>
+        <v>1.875</v>
+      </c>
+      <c r="E50" s="25"/>
+      <c r="F50" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B52" s="36">
+        <f>C50*B50</f>
+        <v>1.875</v>
+      </c>
+      <c r="C52" s="26">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D52" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="E52" s="26">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F52" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="G52" s="26">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H52" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="I52" s="26">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J52" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="K52" s="26">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="L52" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="M52" s="26">
+        <v>5.5E-2</v>
+      </c>
+      <c r="N52" s="26">
+        <v>0.06</v>
+      </c>
+      <c r="O52" s="26">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="P52" s="26">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q52" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="R52" s="26">
+        <v>0.08</v>
+      </c>
+      <c r="S52" s="26">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B53" s="14">
+        <v>70</v>
+      </c>
+      <c r="C53" s="21">
+        <f t="dataTable" ref="C53:S66" dt2D="1" dtr="1" r1="C50" r2="B50"/>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="D53" s="21">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="E53" s="21">
+        <v>1.05</v>
+      </c>
+      <c r="F53" s="21">
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="G53" s="21">
+        <v>1.75</v>
+      </c>
+      <c r="H53" s="21">
+        <v>2.1</v>
+      </c>
+      <c r="I53" s="21">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="J53" s="21">
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="K53" s="21">
+        <v>3.15</v>
+      </c>
+      <c r="L53" s="21">
+        <v>3.5</v>
+      </c>
+      <c r="M53" s="21">
+        <v>3.85</v>
+      </c>
+      <c r="N53" s="21">
+        <v>4.2</v>
+      </c>
+      <c r="O53" s="21">
+        <v>4.55</v>
+      </c>
+      <c r="P53" s="21">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Q53" s="21">
+        <v>5.25</v>
+      </c>
+      <c r="R53" s="21">
+        <v>5.6000000000000005</v>
+      </c>
+      <c r="S53" s="21">
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B54" s="14">
+        <v>75</v>
+      </c>
+      <c r="C54" s="21">
+        <v>0.375</v>
+      </c>
+      <c r="D54" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="E54" s="21">
+        <v>1.125</v>
+      </c>
+      <c r="F54" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="G54" s="21">
+        <v>1.875</v>
+      </c>
+      <c r="H54" s="21">
+        <v>2.25</v>
+      </c>
+      <c r="I54" s="21">
+        <v>2.6250000000000004</v>
+      </c>
+      <c r="J54" s="21">
+        <v>3</v>
+      </c>
+      <c r="K54" s="21">
+        <v>3.375</v>
+      </c>
+      <c r="L54" s="21">
+        <v>3.75</v>
+      </c>
+      <c r="M54" s="21">
+        <v>4.125</v>
+      </c>
+      <c r="N54" s="21">
+        <v>4.5</v>
+      </c>
+      <c r="O54" s="21">
+        <v>4.875</v>
+      </c>
+      <c r="P54" s="21">
+        <v>5.2500000000000009</v>
+      </c>
+      <c r="Q54" s="21">
+        <v>5.625</v>
+      </c>
+      <c r="R54" s="21">
+        <v>6</v>
+      </c>
+      <c r="S54" s="21">
+        <v>6.3750000000000009</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B55" s="14">
+        <v>80</v>
+      </c>
+      <c r="C55" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="D55" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="E55" s="21">
+        <v>1.2</v>
+      </c>
+      <c r="F55" s="21">
+        <v>1.6</v>
+      </c>
+      <c r="G55" s="21">
+        <v>2</v>
+      </c>
+      <c r="H55" s="21">
+        <v>2.4</v>
+      </c>
+      <c r="I55" s="21">
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="J55" s="21">
+        <v>3.2</v>
+      </c>
+      <c r="K55" s="21">
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="L55" s="21">
+        <v>4</v>
+      </c>
+      <c r="M55" s="21">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="N55" s="21">
+        <v>4.8</v>
+      </c>
+      <c r="O55" s="21">
+        <v>5.2</v>
+      </c>
+      <c r="P55" s="21">
+        <v>5.6000000000000005</v>
+      </c>
+      <c r="Q55" s="21">
+        <v>6</v>
+      </c>
+      <c r="R55" s="21">
+        <v>6.4</v>
+      </c>
+      <c r="S55" s="21">
+        <v>6.8000000000000007</v>
+      </c>
+    </row>
+    <row r="56" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B56" s="14">
+        <v>85</v>
+      </c>
+      <c r="C56" s="21">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="D56" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="E56" s="21">
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="F56" s="21">
+        <v>1.7</v>
+      </c>
+      <c r="G56" s="21">
+        <v>2.125</v>
+      </c>
+      <c r="H56" s="21">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="I56" s="21">
+        <v>2.9750000000000001</v>
+      </c>
+      <c r="J56" s="21">
+        <v>3.4</v>
+      </c>
+      <c r="K56" s="21">
+        <v>3.8249999999999997</v>
+      </c>
+      <c r="L56" s="21">
+        <v>4.25</v>
+      </c>
+      <c r="M56" s="21">
+        <v>4.6749999999999998</v>
+      </c>
+      <c r="N56" s="21">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="O56" s="21">
+        <v>5.5250000000000004</v>
+      </c>
+      <c r="P56" s="21">
+        <v>5.95</v>
+      </c>
+      <c r="Q56" s="21">
+        <v>6.375</v>
+      </c>
+      <c r="R56" s="21">
+        <v>6.8</v>
+      </c>
+      <c r="S56" s="21">
+        <v>7.2250000000000005</v>
+      </c>
+    </row>
+    <row r="57" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B57" s="14">
+        <v>90</v>
+      </c>
+      <c r="C57" s="21">
+        <v>0.45</v>
+      </c>
+      <c r="D57" s="21">
+        <v>0.9</v>
+      </c>
+      <c r="E57" s="21">
+        <v>1.3499999999999999</v>
+      </c>
+      <c r="F57" s="21">
+        <v>1.8</v>
+      </c>
+      <c r="G57" s="21">
+        <v>2.25</v>
+      </c>
+      <c r="H57" s="21">
+        <v>2.6999999999999997</v>
+      </c>
+      <c r="I57" s="21">
+        <v>3.1500000000000004</v>
+      </c>
+      <c r="J57" s="21">
+        <v>3.6</v>
+      </c>
+      <c r="K57" s="21">
+        <v>4.05</v>
+      </c>
+      <c r="L57" s="21">
+        <v>4.5</v>
+      </c>
+      <c r="M57" s="21">
+        <v>4.95</v>
+      </c>
+      <c r="N57" s="21">
+        <v>5.3999999999999995</v>
+      </c>
+      <c r="O57" s="21">
+        <v>5.8500000000000005</v>
+      </c>
+      <c r="P57" s="21">
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="Q57" s="21">
+        <v>6.75</v>
+      </c>
+      <c r="R57" s="21">
+        <v>7.2</v>
+      </c>
+      <c r="S57" s="21">
+        <v>7.65</v>
+      </c>
+    </row>
+    <row r="58" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B58" s="14">
+        <v>95</v>
+      </c>
+      <c r="C58" s="21">
+        <v>0.47500000000000003</v>
+      </c>
+      <c r="D58" s="21">
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="E58" s="21">
+        <v>1.425</v>
+      </c>
+      <c r="F58" s="21">
+        <v>1.9000000000000001</v>
+      </c>
+      <c r="G58" s="21">
+        <v>2.375</v>
+      </c>
+      <c r="H58" s="21">
+        <v>2.85</v>
+      </c>
+      <c r="I58" s="21">
+        <v>3.3250000000000002</v>
+      </c>
+      <c r="J58" s="21">
+        <v>3.8000000000000003</v>
+      </c>
+      <c r="K58" s="21">
+        <v>4.2749999999999995</v>
+      </c>
+      <c r="L58" s="21">
+        <v>4.75</v>
+      </c>
+      <c r="M58" s="21">
+        <v>5.2249999999999996</v>
+      </c>
+      <c r="N58" s="21">
+        <v>5.7</v>
+      </c>
+      <c r="O58" s="21">
+        <v>6.1749999999999998</v>
+      </c>
+      <c r="P58" s="21">
+        <v>6.65</v>
+      </c>
+      <c r="Q58" s="21">
+        <v>7.125</v>
+      </c>
+      <c r="R58" s="21">
+        <v>7.6000000000000005</v>
+      </c>
+      <c r="S58" s="21">
+        <v>8.0750000000000011</v>
+      </c>
+    </row>
+    <row r="59" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B59" s="14">
+        <v>100</v>
+      </c>
+      <c r="C59" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="D59" s="21">
+        <v>1</v>
+      </c>
+      <c r="E59" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="F59" s="21">
+        <v>2</v>
+      </c>
+      <c r="G59" s="21">
+        <v>2.5</v>
+      </c>
+      <c r="H59" s="21">
+        <v>3</v>
+      </c>
+      <c r="I59" s="21">
+        <v>3.5000000000000004</v>
+      </c>
+      <c r="J59" s="21">
+        <v>4</v>
+      </c>
+      <c r="K59" s="21">
+        <v>4.5</v>
+      </c>
+      <c r="L59" s="21">
+        <v>5</v>
+      </c>
+      <c r="M59" s="21">
+        <v>5.5</v>
+      </c>
+      <c r="N59" s="21">
+        <v>6</v>
+      </c>
+      <c r="O59" s="21">
+        <v>6.5</v>
+      </c>
+      <c r="P59" s="21">
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="Q59" s="21">
+        <v>7.5</v>
+      </c>
+      <c r="R59" s="21">
+        <v>8</v>
+      </c>
+      <c r="S59" s="21">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="60" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B60" s="14">
+        <v>105</v>
+      </c>
+      <c r="C60" s="21">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="D60" s="21">
+        <v>1.05</v>
+      </c>
+      <c r="E60" s="21">
+        <v>1.575</v>
+      </c>
+      <c r="F60" s="21">
+        <v>2.1</v>
+      </c>
+      <c r="G60" s="21">
+        <v>2.625</v>
+      </c>
+      <c r="H60" s="21">
+        <v>3.15</v>
+      </c>
+      <c r="I60" s="21">
+        <v>3.6750000000000003</v>
+      </c>
+      <c r="J60" s="21">
+        <v>4.2</v>
+      </c>
+      <c r="K60" s="21">
+        <v>4.7249999999999996</v>
+      </c>
+      <c r="L60" s="21">
+        <v>5.25</v>
+      </c>
+      <c r="M60" s="21">
+        <v>5.7750000000000004</v>
+      </c>
+      <c r="N60" s="21">
+        <v>6.3</v>
+      </c>
+      <c r="O60" s="21">
+        <v>6.8250000000000002</v>
+      </c>
+      <c r="P60" s="21">
+        <v>7.3500000000000005</v>
+      </c>
+      <c r="Q60" s="21">
+        <v>7.875</v>
+      </c>
+      <c r="R60" s="21">
+        <v>8.4</v>
+      </c>
+      <c r="S60" s="21">
+        <v>8.9250000000000007</v>
+      </c>
+    </row>
+    <row r="61" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B61" s="14">
+        <v>110</v>
+      </c>
+      <c r="C61" s="21">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D61" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E61" s="21">
+        <v>1.65</v>
+      </c>
+      <c r="F61" s="21">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G61" s="21">
+        <v>2.75</v>
+      </c>
+      <c r="H61" s="21">
+        <v>3.3</v>
+      </c>
+      <c r="I61" s="21">
+        <v>3.8500000000000005</v>
+      </c>
+      <c r="J61" s="21">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K61" s="21">
+        <v>4.95</v>
+      </c>
+      <c r="L61" s="21">
+        <v>5.5</v>
+      </c>
+      <c r="M61" s="21">
+        <v>6.05</v>
+      </c>
+      <c r="N61" s="21">
+        <v>6.6</v>
+      </c>
+      <c r="O61" s="21">
+        <v>7.15</v>
+      </c>
+      <c r="P61" s="21">
+        <v>7.7000000000000011</v>
+      </c>
+      <c r="Q61" s="21">
+        <v>8.25</v>
+      </c>
+      <c r="R61" s="21">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="S61" s="21">
+        <v>9.3500000000000014</v>
+      </c>
+    </row>
+    <row r="62" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B62" s="14">
+        <v>115</v>
+      </c>
+      <c r="C62" s="21">
+        <v>0.57500000000000007</v>
+      </c>
+      <c r="D62" s="21">
+        <v>1.1500000000000001</v>
+      </c>
+      <c r="E62" s="21">
+        <v>1.7249999999999999</v>
+      </c>
+      <c r="F62" s="21">
+        <v>2.3000000000000003</v>
+      </c>
+      <c r="G62" s="21">
+        <v>2.875</v>
+      </c>
+      <c r="H62" s="21">
+        <v>3.4499999999999997</v>
+      </c>
+      <c r="I62" s="21">
+        <v>4.0250000000000004</v>
+      </c>
+      <c r="J62" s="21">
+        <v>4.6000000000000005</v>
+      </c>
+      <c r="K62" s="21">
+        <v>5.1749999999999998</v>
+      </c>
+      <c r="L62" s="21">
+        <v>5.75</v>
+      </c>
+      <c r="M62" s="21">
+        <v>6.3250000000000002</v>
+      </c>
+      <c r="N62" s="21">
+        <v>6.8999999999999995</v>
+      </c>
+      <c r="O62" s="21">
+        <v>7.4750000000000005</v>
+      </c>
+      <c r="P62" s="21">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="Q62" s="21">
+        <v>8.625</v>
+      </c>
+      <c r="R62" s="21">
+        <v>9.2000000000000011</v>
+      </c>
+      <c r="S62" s="21">
+        <v>9.7750000000000004</v>
+      </c>
+    </row>
+    <row r="63" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B63" s="14">
+        <v>120</v>
+      </c>
+      <c r="C63" s="21">
+        <v>0.6</v>
+      </c>
+      <c r="D63" s="21">
+        <v>1.2</v>
+      </c>
+      <c r="E63" s="21">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="F63" s="21">
+        <v>2.4</v>
+      </c>
+      <c r="G63" s="21">
+        <v>3</v>
+      </c>
+      <c r="H63" s="21">
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="I63" s="21">
+        <v>4.2</v>
+      </c>
+      <c r="J63" s="21">
+        <v>4.8</v>
+      </c>
+      <c r="K63" s="21">
+        <v>5.3999999999999995</v>
+      </c>
+      <c r="L63" s="21">
+        <v>6</v>
+      </c>
+      <c r="M63" s="21">
+        <v>6.6</v>
+      </c>
+      <c r="N63" s="21">
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="O63" s="21">
+        <v>7.8000000000000007</v>
+      </c>
+      <c r="P63" s="21">
+        <v>8.4</v>
+      </c>
+      <c r="Q63" s="21">
+        <v>9</v>
+      </c>
+      <c r="R63" s="21">
+        <v>9.6</v>
+      </c>
+      <c r="S63" s="21">
+        <v>10.200000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B64" s="14">
+        <v>125</v>
+      </c>
+      <c r="C64" s="21">
+        <v>0.625</v>
+      </c>
+      <c r="D64" s="21">
+        <v>1.25</v>
+      </c>
+      <c r="E64" s="21">
+        <v>1.875</v>
+      </c>
+      <c r="F64" s="21">
+        <v>2.5</v>
+      </c>
+      <c r="G64" s="21">
+        <v>3.125</v>
+      </c>
+      <c r="H64" s="21">
+        <v>3.75</v>
+      </c>
+      <c r="I64" s="21">
+        <v>4.375</v>
+      </c>
+      <c r="J64" s="21">
+        <v>5</v>
+      </c>
+      <c r="K64" s="21">
+        <v>5.625</v>
+      </c>
+      <c r="L64" s="21">
+        <v>6.25</v>
+      </c>
+      <c r="M64" s="21">
+        <v>6.875</v>
+      </c>
+      <c r="N64" s="21">
+        <v>7.5</v>
+      </c>
+      <c r="O64" s="21">
+        <v>8.125</v>
+      </c>
+      <c r="P64" s="21">
+        <v>8.75</v>
+      </c>
+      <c r="Q64" s="21">
+        <v>9.375</v>
+      </c>
+      <c r="R64" s="21">
+        <v>10</v>
+      </c>
+      <c r="S64" s="21">
+        <v>10.625</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B65" s="14">
+        <v>130</v>
+      </c>
+      <c r="C65" s="21">
+        <v>0.65</v>
+      </c>
+      <c r="D65" s="21">
+        <v>1.3</v>
+      </c>
+      <c r="E65" s="21">
+        <v>1.95</v>
+      </c>
+      <c r="F65" s="21">
+        <v>2.6</v>
+      </c>
+      <c r="G65" s="21">
+        <v>3.25</v>
+      </c>
+      <c r="H65" s="21">
+        <v>3.9</v>
+      </c>
+      <c r="I65" s="21">
+        <v>4.5500000000000007</v>
+      </c>
+      <c r="J65" s="21">
+        <v>5.2</v>
+      </c>
+      <c r="K65" s="21">
+        <v>5.85</v>
+      </c>
+      <c r="L65" s="21">
+        <v>6.5</v>
+      </c>
+      <c r="M65" s="21">
+        <v>7.15</v>
+      </c>
+      <c r="N65" s="21">
+        <v>7.8</v>
+      </c>
+      <c r="O65" s="21">
+        <v>8.4500000000000011</v>
+      </c>
+      <c r="P65" s="21">
+        <v>9.1000000000000014</v>
+      </c>
+      <c r="Q65" s="21">
+        <v>9.75</v>
+      </c>
+      <c r="R65" s="21">
+        <v>10.4</v>
+      </c>
+      <c r="S65" s="21">
+        <v>11.05</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B66" s="14">
+        <v>135</v>
+      </c>
+      <c r="C66" s="21">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="D66" s="21">
+        <v>1.35</v>
+      </c>
+      <c r="E66" s="21">
+        <v>2.0249999999999999</v>
+      </c>
+      <c r="F66" s="21">
+        <v>2.7</v>
+      </c>
+      <c r="G66" s="21">
+        <v>3.375</v>
+      </c>
+      <c r="H66" s="21">
+        <v>4.05</v>
+      </c>
+      <c r="I66" s="21">
+        <v>4.7250000000000005</v>
+      </c>
+      <c r="J66" s="21">
+        <v>5.4</v>
+      </c>
+      <c r="K66" s="21">
+        <v>6.0750000000000002</v>
+      </c>
+      <c r="L66" s="21">
+        <v>6.75</v>
+      </c>
+      <c r="M66" s="21">
+        <v>7.4249999999999998</v>
+      </c>
+      <c r="N66" s="21">
+        <v>8.1</v>
+      </c>
+      <c r="O66" s="21">
+        <v>8.7750000000000004</v>
+      </c>
+      <c r="P66" s="21">
+        <v>9.4500000000000011</v>
+      </c>
+      <c r="Q66" s="21">
+        <v>10.125</v>
+      </c>
+      <c r="R66" s="21">
+        <v>10.8</v>
+      </c>
+      <c r="S66" s="21">
+        <v>11.475000000000001</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J4">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:S19">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J51">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -7561,7 +10526,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:S19">
+  <conditionalFormatting sqref="C53:S66">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -7573,6 +10538,14 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50" xr:uid="{2EE79B1D-C943-4988-A8C4-A265DD8EC580}">
+      <formula1>$B$53:$B$65</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C50" xr:uid="{4D88CD18-49BF-4BC2-902E-2ACA7BD5E381}">
+      <formula1>$C$52:$S$52</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -7580,13 +10553,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE27D5C6-A73D-453B-8970-5BEBA7CFED28}">
-  <dimension ref="B2:S19"/>
+  <dimension ref="B2:S55"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="9.26953125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:19" ht="29" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
@@ -7607,83 +10583,89 @@
       <c r="G2" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="I2" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B3" s="1">
         <v>100</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="18">
         <v>0.14599999999999999</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <f>(G3+H3)/2</f>
         <v>3.605</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="17">
         <f>PRODUCT(B3:D3)</f>
         <v>52.632999999999996</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="11">
         <v>5.96</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="11">
         <v>7.21</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B5" s="8">
+      <c r="B5" s="20">
         <f>E3</f>
         <v>52.632999999999996</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="19">
         <v>0.126</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="19">
         <v>0.128</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <v>0.13</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="19">
         <v>0.13200000000000001</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="19">
         <v>0.13400000000000001</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="19">
         <v>0.13600000000000001</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="19">
         <v>0.13800000000000001</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="19">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="19">
         <v>0.14199999999999999</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="19">
         <v>0.14399999999999999</v>
       </c>
-      <c r="M5" s="20">
+      <c r="M5" s="19">
         <v>0.14599999999999999</v>
       </c>
-      <c r="N5" s="20">
+      <c r="N5" s="19">
         <v>0.14799999999999999</v>
       </c>
-      <c r="O5" s="20">
+      <c r="O5" s="19">
         <v>0.15</v>
       </c>
-      <c r="P5" s="20">
+      <c r="P5" s="19">
         <v>0.152</v>
       </c>
-      <c r="Q5" s="20">
+      <c r="Q5" s="19">
         <v>0.154</v>
       </c>
-      <c r="R5" s="20">
+      <c r="R5" s="19">
         <v>0.156</v>
       </c>
-      <c r="S5" s="20">
+      <c r="S5" s="19">
         <v>0.158</v>
       </c>
     </row>
@@ -7691,56 +10673,56 @@
       <c r="B6" s="2">
         <v>300</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="20">
         <f t="dataTable" ref="C6:S19" dt2D="1" dtr="1" r1="C3" r2="B3"/>
         <v>136.26899999999998</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="20">
         <v>138.43199999999999</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="20">
         <v>140.595</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="20">
         <v>142.75800000000001</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="20">
         <v>144.92100000000002</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="20">
         <v>147.084</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="20">
         <v>149.24700000000001</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="20">
         <v>151.41000000000003</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="20">
         <v>153.57299999999998</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="20">
         <v>155.73599999999999</v>
       </c>
-      <c r="M6" s="21">
+      <c r="M6" s="20">
         <v>157.899</v>
       </c>
-      <c r="N6" s="21">
+      <c r="N6" s="20">
         <v>160.06199999999998</v>
       </c>
-      <c r="O6" s="21">
+      <c r="O6" s="20">
         <v>162.22499999999999</v>
       </c>
-      <c r="P6" s="21">
+      <c r="P6" s="20">
         <v>164.38800000000001</v>
       </c>
-      <c r="Q6" s="21">
+      <c r="Q6" s="20">
         <v>166.55100000000002</v>
       </c>
-      <c r="R6" s="21">
+      <c r="R6" s="20">
         <v>168.714</v>
       </c>
-      <c r="S6" s="21">
+      <c r="S6" s="20">
         <v>170.87699999999998</v>
       </c>
     </row>
@@ -7748,55 +10730,55 @@
       <c r="B7" s="2">
         <v>330</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="20">
         <v>149.89589999999998</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="20">
         <v>152.27520000000001</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="20">
         <v>154.65449999999998</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="20">
         <v>157.03380000000001</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="20">
         <v>159.41310000000001</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="20">
         <v>161.79240000000001</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="20">
         <v>164.17170000000002</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="20">
         <v>166.55100000000002</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="20">
         <v>168.93029999999996</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="20">
         <v>171.30959999999999</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="20">
         <v>173.68889999999999</v>
       </c>
-      <c r="N7" s="21">
+      <c r="N7" s="20">
         <v>176.06819999999999</v>
       </c>
-      <c r="O7" s="21">
+      <c r="O7" s="20">
         <v>178.44749999999999</v>
       </c>
-      <c r="P7" s="21">
+      <c r="P7" s="20">
         <v>180.82679999999999</v>
       </c>
-      <c r="Q7" s="21">
+      <c r="Q7" s="20">
         <v>183.20609999999999</v>
       </c>
-      <c r="R7" s="21">
+      <c r="R7" s="20">
         <v>185.58539999999999</v>
       </c>
-      <c r="S7" s="21">
+      <c r="S7" s="20">
         <v>187.96469999999999</v>
       </c>
     </row>
@@ -7804,55 +10786,55 @@
       <c r="B8" s="2">
         <v>360</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="20">
         <v>163.52279999999999</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="20">
         <v>166.11839999999998</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="20">
         <v>168.71400000000003</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="20">
         <v>171.30960000000002</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="20">
         <v>173.90520000000001</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="20">
         <v>176.5008</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="20">
         <v>179.09640000000002</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="20">
         <v>181.69200000000001</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="20">
         <v>184.2876</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="20">
         <v>186.88319999999999</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="20">
         <v>189.47879999999998</v>
       </c>
-      <c r="N8" s="21">
+      <c r="N8" s="20">
         <v>192.07439999999997</v>
       </c>
-      <c r="O8" s="21">
+      <c r="O8" s="20">
         <v>194.67</v>
       </c>
-      <c r="P8" s="21">
+      <c r="P8" s="20">
         <v>197.26560000000001</v>
       </c>
-      <c r="Q8" s="21">
+      <c r="Q8" s="20">
         <v>199.8612</v>
       </c>
-      <c r="R8" s="21">
+      <c r="R8" s="20">
         <v>202.45679999999999</v>
       </c>
-      <c r="S8" s="21">
+      <c r="S8" s="20">
         <v>205.05240000000001</v>
       </c>
     </row>
@@ -7860,55 +10842,55 @@
       <c r="B9" s="2">
         <v>390</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="20">
         <v>177.1497</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="20">
         <v>179.9616</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="20">
         <v>182.77350000000001</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="20">
         <v>185.58540000000002</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="20">
         <v>188.39730000000003</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="20">
         <v>191.20920000000001</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="20">
         <v>194.02110000000002</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="20">
         <v>196.83300000000003</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="20">
         <v>199.64489999999998</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L9" s="20">
         <v>202.45679999999999</v>
       </c>
-      <c r="M9" s="21">
+      <c r="M9" s="20">
         <v>205.2687</v>
       </c>
-      <c r="N9" s="21">
+      <c r="N9" s="20">
         <v>208.0806</v>
       </c>
-      <c r="O9" s="21">
+      <c r="O9" s="20">
         <v>210.89250000000001</v>
       </c>
-      <c r="P9" s="21">
+      <c r="P9" s="20">
         <v>213.70439999999999</v>
       </c>
-      <c r="Q9" s="21">
+      <c r="Q9" s="20">
         <v>216.5163</v>
       </c>
-      <c r="R9" s="21">
+      <c r="R9" s="20">
         <v>219.32820000000001</v>
       </c>
-      <c r="S9" s="21">
+      <c r="S9" s="20">
         <v>222.14009999999999</v>
       </c>
     </row>
@@ -7916,55 +10898,55 @@
       <c r="B10" s="2">
         <v>420</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="20">
         <v>190.7766</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="20">
         <v>193.8048</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="20">
         <v>196.833</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="20">
         <v>199.86120000000003</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="20">
         <v>202.88939999999999</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="20">
         <v>205.91760000000002</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="20">
         <v>208.94580000000002</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J10" s="20">
         <v>211.97400000000002</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K10" s="20">
         <v>215.00219999999999</v>
       </c>
-      <c r="L10" s="21">
+      <c r="L10" s="20">
         <v>218.03039999999999</v>
       </c>
-      <c r="M10" s="21">
+      <c r="M10" s="20">
         <v>221.05859999999998</v>
       </c>
-      <c r="N10" s="21">
+      <c r="N10" s="20">
         <v>224.08679999999998</v>
       </c>
-      <c r="O10" s="21">
+      <c r="O10" s="20">
         <v>227.11500000000001</v>
       </c>
-      <c r="P10" s="21">
+      <c r="P10" s="20">
         <v>230.14319999999998</v>
       </c>
-      <c r="Q10" s="21">
+      <c r="Q10" s="20">
         <v>233.17139999999998</v>
       </c>
-      <c r="R10" s="21">
+      <c r="R10" s="20">
         <v>236.19959999999998</v>
       </c>
-      <c r="S10" s="21">
+      <c r="S10" s="20">
         <v>239.2278</v>
       </c>
     </row>
@@ -7972,55 +10954,55 @@
       <c r="B11" s="2">
         <v>450</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="20">
         <v>204.40350000000001</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="20">
         <v>207.648</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="20">
         <v>210.89250000000001</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="20">
         <v>214.13700000000003</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="20">
         <v>217.38150000000002</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="20">
         <v>220.626</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="20">
         <v>223.87050000000002</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J11" s="20">
         <v>227.11500000000004</v>
       </c>
-      <c r="K11" s="21">
+      <c r="K11" s="20">
         <v>230.35949999999997</v>
       </c>
-      <c r="L11" s="21">
+      <c r="L11" s="20">
         <v>233.60399999999998</v>
       </c>
-      <c r="M11" s="21">
+      <c r="M11" s="20">
         <v>236.8485</v>
       </c>
-      <c r="N11" s="21">
+      <c r="N11" s="20">
         <v>240.09299999999999</v>
       </c>
-      <c r="O11" s="21">
+      <c r="O11" s="20">
         <v>243.33750000000001</v>
       </c>
-      <c r="P11" s="21">
+      <c r="P11" s="20">
         <v>246.58199999999997</v>
       </c>
-      <c r="Q11" s="21">
+      <c r="Q11" s="20">
         <v>249.82649999999998</v>
       </c>
-      <c r="R11" s="21">
+      <c r="R11" s="20">
         <v>253.071</v>
       </c>
-      <c r="S11" s="21">
+      <c r="S11" s="20">
         <v>256.31549999999999</v>
       </c>
     </row>
@@ -8028,55 +11010,55 @@
       <c r="B12" s="2">
         <v>480</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="20">
         <v>218.03040000000001</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="20">
         <v>221.49119999999999</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="20">
         <v>224.95200000000003</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="20">
         <v>228.4128</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="20">
         <v>231.87360000000004</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="20">
         <v>235.33440000000002</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="20">
         <v>238.79520000000002</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="20">
         <v>242.256</v>
       </c>
-      <c r="K12" s="21">
+      <c r="K12" s="20">
         <v>245.71679999999998</v>
       </c>
-      <c r="L12" s="21">
+      <c r="L12" s="20">
         <v>249.17759999999996</v>
       </c>
-      <c r="M12" s="21">
+      <c r="M12" s="20">
         <v>252.63839999999999</v>
       </c>
-      <c r="N12" s="21">
+      <c r="N12" s="20">
         <v>256.0992</v>
       </c>
-      <c r="O12" s="21">
+      <c r="O12" s="20">
         <v>259.56</v>
       </c>
-      <c r="P12" s="21">
+      <c r="P12" s="20">
         <v>263.02079999999995</v>
       </c>
-      <c r="Q12" s="21">
+      <c r="Q12" s="20">
         <v>266.48160000000001</v>
       </c>
-      <c r="R12" s="21">
+      <c r="R12" s="20">
         <v>269.94239999999996</v>
       </c>
-      <c r="S12" s="21">
+      <c r="S12" s="20">
         <v>273.40320000000003</v>
       </c>
     </row>
@@ -8084,55 +11066,55 @@
       <c r="B13" s="2">
         <v>510</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="20">
         <v>231.65730000000002</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="20">
         <v>235.33440000000002</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="20">
         <v>239.01149999999998</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="20">
         <v>242.68860000000004</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="20">
         <v>246.3657</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="20">
         <v>250.0428</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="20">
         <v>253.71990000000002</v>
       </c>
-      <c r="J13" s="21">
+      <c r="J13" s="20">
         <v>257.39699999999999</v>
       </c>
-      <c r="K13" s="21">
+      <c r="K13" s="20">
         <v>261.07409999999993</v>
       </c>
-      <c r="L13" s="21">
+      <c r="L13" s="20">
         <v>264.75119999999998</v>
       </c>
-      <c r="M13" s="21">
+      <c r="M13" s="20">
         <v>268.42829999999998</v>
       </c>
-      <c r="N13" s="21">
+      <c r="N13" s="20">
         <v>272.10539999999997</v>
       </c>
-      <c r="O13" s="21">
+      <c r="O13" s="20">
         <v>275.78249999999997</v>
       </c>
-      <c r="P13" s="21">
+      <c r="P13" s="20">
         <v>279.45959999999997</v>
       </c>
-      <c r="Q13" s="21">
+      <c r="Q13" s="20">
         <v>283.13669999999996</v>
       </c>
-      <c r="R13" s="21">
+      <c r="R13" s="20">
         <v>286.81380000000001</v>
       </c>
-      <c r="S13" s="21">
+      <c r="S13" s="20">
         <v>290.49090000000001</v>
       </c>
     </row>
@@ -8140,55 +11122,55 @@
       <c r="B14" s="2">
         <v>540</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="20">
         <v>245.28420000000003</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="20">
         <v>249.17760000000001</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="20">
         <v>253.071</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="20">
         <v>256.96440000000001</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="20">
         <v>260.8578</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="20">
         <v>264.75120000000004</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="20">
         <v>268.64460000000003</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="20">
         <v>272.53800000000001</v>
       </c>
-      <c r="K14" s="21">
+      <c r="K14" s="20">
         <v>276.4314</v>
       </c>
-      <c r="L14" s="21">
+      <c r="L14" s="20">
         <v>280.32479999999998</v>
       </c>
-      <c r="M14" s="21">
+      <c r="M14" s="20">
         <v>284.21819999999997</v>
       </c>
-      <c r="N14" s="21">
+      <c r="N14" s="20">
         <v>288.11160000000001</v>
       </c>
-      <c r="O14" s="21">
+      <c r="O14" s="20">
         <v>292.005</v>
       </c>
-      <c r="P14" s="21">
+      <c r="P14" s="20">
         <v>295.89839999999998</v>
       </c>
-      <c r="Q14" s="21">
+      <c r="Q14" s="20">
         <v>299.79179999999997</v>
       </c>
-      <c r="R14" s="21">
+      <c r="R14" s="20">
         <v>303.68519999999995</v>
       </c>
-      <c r="S14" s="21">
+      <c r="S14" s="20">
         <v>307.57860000000005</v>
       </c>
     </row>
@@ -8196,55 +11178,55 @@
       <c r="B15" s="2">
         <v>570</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="20">
         <v>258.91110000000003</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="20">
         <v>263.02080000000001</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="20">
         <v>267.13050000000004</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="20">
         <v>271.24020000000002</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="20">
         <v>275.34990000000005</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="20">
         <v>279.45960000000002</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="20">
         <v>283.56930000000006</v>
       </c>
-      <c r="J15" s="21">
+      <c r="J15" s="20">
         <v>287.67900000000003</v>
       </c>
-      <c r="K15" s="21">
+      <c r="K15" s="20">
         <v>291.78870000000001</v>
       </c>
-      <c r="L15" s="21">
+      <c r="L15" s="20">
         <v>295.89839999999998</v>
       </c>
-      <c r="M15" s="21">
+      <c r="M15" s="20">
         <v>300.00810000000001</v>
       </c>
-      <c r="N15" s="21">
+      <c r="N15" s="20">
         <v>304.11779999999999</v>
       </c>
-      <c r="O15" s="21">
+      <c r="O15" s="20">
         <v>308.22750000000002</v>
       </c>
-      <c r="P15" s="21">
+      <c r="P15" s="20">
         <v>312.3372</v>
       </c>
-      <c r="Q15" s="21">
+      <c r="Q15" s="20">
         <v>316.44690000000003</v>
       </c>
-      <c r="R15" s="21">
+      <c r="R15" s="20">
         <v>320.5566</v>
       </c>
-      <c r="S15" s="21">
+      <c r="S15" s="20">
         <v>324.66629999999998</v>
       </c>
     </row>
@@ -8252,55 +11234,55 @@
       <c r="B16" s="2">
         <v>600</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="20">
         <v>272.53799999999995</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="20">
         <v>276.86399999999998</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="20">
         <v>281.19</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="20">
         <v>285.51600000000002</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="20">
         <v>289.84200000000004</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="20">
         <v>294.16800000000001</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="20">
         <v>298.49400000000003</v>
       </c>
-      <c r="J16" s="21">
+      <c r="J16" s="20">
         <v>302.82000000000005</v>
       </c>
-      <c r="K16" s="21">
+      <c r="K16" s="20">
         <v>307.14599999999996</v>
       </c>
-      <c r="L16" s="21">
+      <c r="L16" s="20">
         <v>311.47199999999998</v>
       </c>
-      <c r="M16" s="21">
+      <c r="M16" s="20">
         <v>315.798</v>
       </c>
-      <c r="N16" s="21">
+      <c r="N16" s="20">
         <v>320.12399999999997</v>
       </c>
-      <c r="O16" s="21">
+      <c r="O16" s="20">
         <v>324.45</v>
       </c>
-      <c r="P16" s="21">
+      <c r="P16" s="20">
         <v>328.77600000000001</v>
       </c>
-      <c r="Q16" s="21">
+      <c r="Q16" s="20">
         <v>333.10200000000003</v>
       </c>
-      <c r="R16" s="21">
+      <c r="R16" s="20">
         <v>337.428</v>
       </c>
-      <c r="S16" s="21">
+      <c r="S16" s="20">
         <v>341.75399999999996</v>
       </c>
     </row>
@@ -8308,55 +11290,55 @@
       <c r="B17" s="2">
         <v>630</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="20">
         <v>286.16489999999999</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="20">
         <v>290.7072</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="20">
         <v>295.24950000000001</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="20">
         <v>299.79180000000002</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="20">
         <v>304.33409999999998</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="20">
         <v>308.87640000000005</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="20">
         <v>313.41870000000006</v>
       </c>
-      <c r="J17" s="21">
+      <c r="J17" s="20">
         <v>317.96100000000001</v>
       </c>
-      <c r="K17" s="21">
+      <c r="K17" s="20">
         <v>322.50329999999997</v>
       </c>
-      <c r="L17" s="21">
+      <c r="L17" s="20">
         <v>327.04559999999998</v>
       </c>
-      <c r="M17" s="21">
+      <c r="M17" s="20">
         <v>331.58789999999993</v>
       </c>
-      <c r="N17" s="21">
+      <c r="N17" s="20">
         <v>336.1302</v>
       </c>
-      <c r="O17" s="21">
+      <c r="O17" s="20">
         <v>340.67250000000001</v>
       </c>
-      <c r="P17" s="21">
+      <c r="P17" s="20">
         <v>345.21479999999997</v>
       </c>
-      <c r="Q17" s="21">
+      <c r="Q17" s="20">
         <v>349.75709999999998</v>
       </c>
-      <c r="R17" s="21">
+      <c r="R17" s="20">
         <v>354.29939999999999</v>
       </c>
-      <c r="S17" s="21">
+      <c r="S17" s="20">
         <v>358.8417</v>
       </c>
     </row>
@@ -8364,55 +11346,55 @@
       <c r="B18" s="2">
         <v>660</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="20">
         <v>299.79179999999997</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="20">
         <v>304.55040000000002</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="20">
         <v>309.30899999999997</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="20">
         <v>314.06760000000003</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="20">
         <v>318.82620000000003</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="20">
         <v>323.58480000000003</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="20">
         <v>328.34340000000003</v>
       </c>
-      <c r="J18" s="21">
+      <c r="J18" s="20">
         <v>333.10200000000003</v>
       </c>
-      <c r="K18" s="21">
+      <c r="K18" s="20">
         <v>337.86059999999992</v>
       </c>
-      <c r="L18" s="21">
+      <c r="L18" s="20">
         <v>342.61919999999998</v>
       </c>
-      <c r="M18" s="21">
+      <c r="M18" s="20">
         <v>347.37779999999998</v>
       </c>
-      <c r="N18" s="21">
+      <c r="N18" s="20">
         <v>352.13639999999998</v>
       </c>
-      <c r="O18" s="21">
+      <c r="O18" s="20">
         <v>356.89499999999998</v>
       </c>
-      <c r="P18" s="21">
+      <c r="P18" s="20">
         <v>361.65359999999998</v>
       </c>
-      <c r="Q18" s="21">
+      <c r="Q18" s="20">
         <v>366.41219999999998</v>
       </c>
-      <c r="R18" s="21">
+      <c r="R18" s="20">
         <v>371.17079999999999</v>
       </c>
-      <c r="S18" s="21">
+      <c r="S18" s="20">
         <v>375.92939999999999</v>
       </c>
     </row>
@@ -8420,60 +11402,947 @@
       <c r="B19" s="2">
         <v>690</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="20">
         <v>313.4187</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="20">
         <v>318.39360000000005</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="20">
         <v>323.36849999999998</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="20">
         <v>328.34339999999997</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="20">
         <v>333.31830000000002</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="20">
         <v>338.29320000000001</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="20">
         <v>343.26810000000006</v>
       </c>
-      <c r="J19" s="21">
+      <c r="J19" s="20">
         <v>348.24300000000005</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K19" s="20">
         <v>353.21789999999999</v>
       </c>
-      <c r="L19" s="21">
+      <c r="L19" s="20">
         <v>358.19279999999998</v>
       </c>
-      <c r="M19" s="21">
+      <c r="M19" s="20">
         <v>363.16769999999997</v>
       </c>
-      <c r="N19" s="21">
+      <c r="N19" s="20">
         <v>368.14259999999996</v>
       </c>
-      <c r="O19" s="21">
+      <c r="O19" s="20">
         <v>373.11750000000001</v>
       </c>
-      <c r="P19" s="21">
+      <c r="P19" s="20">
         <v>378.0924</v>
       </c>
-      <c r="Q19" s="21">
+      <c r="Q19" s="20">
         <v>383.06729999999999</v>
       </c>
-      <c r="R19" s="21">
+      <c r="R19" s="20">
         <v>388.04219999999998</v>
       </c>
-      <c r="S19" s="21">
+      <c r="S19" s="20">
         <v>393.01709999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="23"/>
+      <c r="F38" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" s="23"/>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B39" s="32">
+        <v>300</v>
+      </c>
+      <c r="C39" s="29">
+        <v>0.15</v>
+      </c>
+      <c r="D39" s="27">
+        <f>ROUNDUP(C39*B39,0)</f>
+        <v>45</v>
+      </c>
+      <c r="E39" s="25"/>
+      <c r="F39" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="24"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B41" s="28">
+        <f>D39</f>
+        <v>45</v>
+      </c>
+      <c r="C41" s="19">
+        <v>0.126</v>
+      </c>
+      <c r="D41" s="19">
+        <v>0.128</v>
+      </c>
+      <c r="E41" s="19">
+        <v>0.13</v>
+      </c>
+      <c r="F41" s="19">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="G41" s="19">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="H41" s="19">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="I41" s="19">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="J41" s="19">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K41" s="19">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="L41" s="19">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="M41" s="19">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="N41" s="19">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="O41" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="P41" s="19">
+        <v>0.152</v>
+      </c>
+      <c r="Q41" s="19">
+        <v>0.154</v>
+      </c>
+      <c r="R41" s="19">
+        <v>0.156</v>
+      </c>
+      <c r="S41" s="19">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B42" s="2">
+        <v>300</v>
+      </c>
+      <c r="C42" s="28">
+        <f t="dataTable" ref="C42:S55" dt2D="1" dtr="1" r1="C39" r2="B39"/>
+        <v>38</v>
+      </c>
+      <c r="D42" s="28">
+        <v>39</v>
+      </c>
+      <c r="E42" s="28">
+        <v>39</v>
+      </c>
+      <c r="F42" s="28">
+        <v>40</v>
+      </c>
+      <c r="G42" s="28">
+        <v>41</v>
+      </c>
+      <c r="H42" s="28">
+        <v>41</v>
+      </c>
+      <c r="I42" s="28">
+        <v>42</v>
+      </c>
+      <c r="J42" s="28">
+        <v>42</v>
+      </c>
+      <c r="K42" s="28">
+        <v>43</v>
+      </c>
+      <c r="L42" s="28">
+        <v>44</v>
+      </c>
+      <c r="M42" s="28">
+        <v>44</v>
+      </c>
+      <c r="N42" s="28">
+        <v>45</v>
+      </c>
+      <c r="O42" s="28">
+        <v>45</v>
+      </c>
+      <c r="P42" s="28">
+        <v>46</v>
+      </c>
+      <c r="Q42" s="28">
+        <v>47</v>
+      </c>
+      <c r="R42" s="28">
+        <v>47</v>
+      </c>
+      <c r="S42" s="28">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B43" s="2">
+        <v>330</v>
+      </c>
+      <c r="C43" s="28">
+        <v>42</v>
+      </c>
+      <c r="D43" s="28">
+        <v>43</v>
+      </c>
+      <c r="E43" s="28">
+        <v>43</v>
+      </c>
+      <c r="F43" s="28">
+        <v>44</v>
+      </c>
+      <c r="G43" s="28">
+        <v>45</v>
+      </c>
+      <c r="H43" s="28">
+        <v>45</v>
+      </c>
+      <c r="I43" s="28">
+        <v>46</v>
+      </c>
+      <c r="J43" s="28">
+        <v>47</v>
+      </c>
+      <c r="K43" s="28">
+        <v>47</v>
+      </c>
+      <c r="L43" s="28">
+        <v>48</v>
+      </c>
+      <c r="M43" s="28">
+        <v>49</v>
+      </c>
+      <c r="N43" s="28">
+        <v>49</v>
+      </c>
+      <c r="O43" s="28">
+        <v>50</v>
+      </c>
+      <c r="P43" s="28">
+        <v>51</v>
+      </c>
+      <c r="Q43" s="28">
+        <v>51</v>
+      </c>
+      <c r="R43" s="28">
+        <v>52</v>
+      </c>
+      <c r="S43" s="28">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B44" s="2">
+        <v>360</v>
+      </c>
+      <c r="C44" s="28">
+        <v>46</v>
+      </c>
+      <c r="D44" s="28">
+        <v>47</v>
+      </c>
+      <c r="E44" s="28">
+        <v>47</v>
+      </c>
+      <c r="F44" s="28">
+        <v>48</v>
+      </c>
+      <c r="G44" s="28">
+        <v>49</v>
+      </c>
+      <c r="H44" s="28">
+        <v>49</v>
+      </c>
+      <c r="I44" s="28">
+        <v>50</v>
+      </c>
+      <c r="J44" s="28">
+        <v>51</v>
+      </c>
+      <c r="K44" s="28">
+        <v>52</v>
+      </c>
+      <c r="L44" s="28">
+        <v>52</v>
+      </c>
+      <c r="M44" s="28">
+        <v>53</v>
+      </c>
+      <c r="N44" s="28">
+        <v>54</v>
+      </c>
+      <c r="O44" s="28">
+        <v>54</v>
+      </c>
+      <c r="P44" s="28">
+        <v>55</v>
+      </c>
+      <c r="Q44" s="28">
+        <v>56</v>
+      </c>
+      <c r="R44" s="28">
+        <v>57</v>
+      </c>
+      <c r="S44" s="28">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B45" s="2">
+        <v>390</v>
+      </c>
+      <c r="C45" s="28">
+        <v>50</v>
+      </c>
+      <c r="D45" s="28">
+        <v>50</v>
+      </c>
+      <c r="E45" s="28">
+        <v>51</v>
+      </c>
+      <c r="F45" s="28">
+        <v>52</v>
+      </c>
+      <c r="G45" s="28">
+        <v>53</v>
+      </c>
+      <c r="H45" s="28">
+        <v>54</v>
+      </c>
+      <c r="I45" s="28">
+        <v>54</v>
+      </c>
+      <c r="J45" s="28">
+        <v>55</v>
+      </c>
+      <c r="K45" s="28">
+        <v>56</v>
+      </c>
+      <c r="L45" s="28">
+        <v>57</v>
+      </c>
+      <c r="M45" s="28">
+        <v>57</v>
+      </c>
+      <c r="N45" s="28">
+        <v>58</v>
+      </c>
+      <c r="O45" s="28">
+        <v>59</v>
+      </c>
+      <c r="P45" s="28">
+        <v>60</v>
+      </c>
+      <c r="Q45" s="28">
+        <v>61</v>
+      </c>
+      <c r="R45" s="28">
+        <v>61</v>
+      </c>
+      <c r="S45" s="28">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B46" s="2">
+        <v>420</v>
+      </c>
+      <c r="C46" s="28">
+        <v>53</v>
+      </c>
+      <c r="D46" s="28">
+        <v>54</v>
+      </c>
+      <c r="E46" s="28">
+        <v>55</v>
+      </c>
+      <c r="F46" s="28">
+        <v>56</v>
+      </c>
+      <c r="G46" s="28">
+        <v>57</v>
+      </c>
+      <c r="H46" s="28">
+        <v>58</v>
+      </c>
+      <c r="I46" s="28">
+        <v>58</v>
+      </c>
+      <c r="J46" s="28">
+        <v>59</v>
+      </c>
+      <c r="K46" s="28">
+        <v>60</v>
+      </c>
+      <c r="L46" s="28">
+        <v>61</v>
+      </c>
+      <c r="M46" s="28">
+        <v>62</v>
+      </c>
+      <c r="N46" s="28">
+        <v>63</v>
+      </c>
+      <c r="O46" s="28">
+        <v>63</v>
+      </c>
+      <c r="P46" s="28">
+        <v>64</v>
+      </c>
+      <c r="Q46" s="28">
+        <v>65</v>
+      </c>
+      <c r="R46" s="28">
+        <v>66</v>
+      </c>
+      <c r="S46" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B47" s="2">
+        <v>450</v>
+      </c>
+      <c r="C47" s="28">
+        <v>57</v>
+      </c>
+      <c r="D47" s="28">
+        <v>58</v>
+      </c>
+      <c r="E47" s="28">
+        <v>59</v>
+      </c>
+      <c r="F47" s="28">
+        <v>60</v>
+      </c>
+      <c r="G47" s="28">
+        <v>61</v>
+      </c>
+      <c r="H47" s="28">
+        <v>62</v>
+      </c>
+      <c r="I47" s="28">
+        <v>63</v>
+      </c>
+      <c r="J47" s="28">
+        <v>63</v>
+      </c>
+      <c r="K47" s="28">
+        <v>64</v>
+      </c>
+      <c r="L47" s="28">
+        <v>65</v>
+      </c>
+      <c r="M47" s="28">
+        <v>66</v>
+      </c>
+      <c r="N47" s="28">
+        <v>67</v>
+      </c>
+      <c r="O47" s="28">
+        <v>68</v>
+      </c>
+      <c r="P47" s="28">
+        <v>69</v>
+      </c>
+      <c r="Q47" s="28">
+        <v>70</v>
+      </c>
+      <c r="R47" s="28">
+        <v>71</v>
+      </c>
+      <c r="S47" s="28">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B48" s="2">
+        <v>480</v>
+      </c>
+      <c r="C48" s="28">
+        <v>61</v>
+      </c>
+      <c r="D48" s="28">
+        <v>62</v>
+      </c>
+      <c r="E48" s="28">
+        <v>63</v>
+      </c>
+      <c r="F48" s="28">
+        <v>64</v>
+      </c>
+      <c r="G48" s="28">
+        <v>65</v>
+      </c>
+      <c r="H48" s="28">
+        <v>66</v>
+      </c>
+      <c r="I48" s="28">
+        <v>67</v>
+      </c>
+      <c r="J48" s="28">
+        <v>68</v>
+      </c>
+      <c r="K48" s="28">
+        <v>69</v>
+      </c>
+      <c r="L48" s="28">
+        <v>70</v>
+      </c>
+      <c r="M48" s="28">
+        <v>71</v>
+      </c>
+      <c r="N48" s="28">
+        <v>72</v>
+      </c>
+      <c r="O48" s="28">
+        <v>72</v>
+      </c>
+      <c r="P48" s="28">
+        <v>73</v>
+      </c>
+      <c r="Q48" s="28">
+        <v>74</v>
+      </c>
+      <c r="R48" s="28">
+        <v>75</v>
+      </c>
+      <c r="S48" s="28">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B49" s="2">
+        <v>510</v>
+      </c>
+      <c r="C49" s="28">
+        <v>65</v>
+      </c>
+      <c r="D49" s="28">
+        <v>66</v>
+      </c>
+      <c r="E49" s="28">
+        <v>67</v>
+      </c>
+      <c r="F49" s="28">
+        <v>68</v>
+      </c>
+      <c r="G49" s="28">
+        <v>69</v>
+      </c>
+      <c r="H49" s="28">
+        <v>70</v>
+      </c>
+      <c r="I49" s="28">
+        <v>71</v>
+      </c>
+      <c r="J49" s="28">
+        <v>72</v>
+      </c>
+      <c r="K49" s="28">
+        <v>73</v>
+      </c>
+      <c r="L49" s="28">
+        <v>74</v>
+      </c>
+      <c r="M49" s="28">
+        <v>75</v>
+      </c>
+      <c r="N49" s="28">
+        <v>76</v>
+      </c>
+      <c r="O49" s="28">
+        <v>77</v>
+      </c>
+      <c r="P49" s="28">
+        <v>78</v>
+      </c>
+      <c r="Q49" s="28">
+        <v>79</v>
+      </c>
+      <c r="R49" s="28">
+        <v>80</v>
+      </c>
+      <c r="S49" s="28">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B50" s="2">
+        <v>540</v>
+      </c>
+      <c r="C50" s="28">
+        <v>69</v>
+      </c>
+      <c r="D50" s="28">
+        <v>70</v>
+      </c>
+      <c r="E50" s="28">
+        <v>71</v>
+      </c>
+      <c r="F50" s="28">
+        <v>72</v>
+      </c>
+      <c r="G50" s="28">
+        <v>73</v>
+      </c>
+      <c r="H50" s="28">
+        <v>74</v>
+      </c>
+      <c r="I50" s="28">
+        <v>75</v>
+      </c>
+      <c r="J50" s="28">
+        <v>76</v>
+      </c>
+      <c r="K50" s="28">
+        <v>77</v>
+      </c>
+      <c r="L50" s="28">
+        <v>78</v>
+      </c>
+      <c r="M50" s="28">
+        <v>79</v>
+      </c>
+      <c r="N50" s="28">
+        <v>80</v>
+      </c>
+      <c r="O50" s="28">
+        <v>81</v>
+      </c>
+      <c r="P50" s="28">
+        <v>83</v>
+      </c>
+      <c r="Q50" s="28">
+        <v>84</v>
+      </c>
+      <c r="R50" s="28">
+        <v>85</v>
+      </c>
+      <c r="S50" s="28">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B51" s="2">
+        <v>570</v>
+      </c>
+      <c r="C51" s="28">
+        <v>72</v>
+      </c>
+      <c r="D51" s="28">
+        <v>73</v>
+      </c>
+      <c r="E51" s="28">
+        <v>75</v>
+      </c>
+      <c r="F51" s="28">
+        <v>76</v>
+      </c>
+      <c r="G51" s="28">
+        <v>77</v>
+      </c>
+      <c r="H51" s="28">
+        <v>78</v>
+      </c>
+      <c r="I51" s="28">
+        <v>79</v>
+      </c>
+      <c r="J51" s="28">
+        <v>80</v>
+      </c>
+      <c r="K51" s="28">
+        <v>81</v>
+      </c>
+      <c r="L51" s="28">
+        <v>83</v>
+      </c>
+      <c r="M51" s="28">
+        <v>84</v>
+      </c>
+      <c r="N51" s="28">
+        <v>85</v>
+      </c>
+      <c r="O51" s="28">
+        <v>86</v>
+      </c>
+      <c r="P51" s="28">
+        <v>87</v>
+      </c>
+      <c r="Q51" s="28">
+        <v>88</v>
+      </c>
+      <c r="R51" s="28">
+        <v>89</v>
+      </c>
+      <c r="S51" s="28">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B52" s="2">
+        <v>600</v>
+      </c>
+      <c r="C52" s="28">
+        <v>76</v>
+      </c>
+      <c r="D52" s="28">
+        <v>77</v>
+      </c>
+      <c r="E52" s="28">
+        <v>78</v>
+      </c>
+      <c r="F52" s="28">
+        <v>80</v>
+      </c>
+      <c r="G52" s="28">
+        <v>81</v>
+      </c>
+      <c r="H52" s="28">
+        <v>82</v>
+      </c>
+      <c r="I52" s="28">
+        <v>83</v>
+      </c>
+      <c r="J52" s="28">
+        <v>84</v>
+      </c>
+      <c r="K52" s="28">
+        <v>86</v>
+      </c>
+      <c r="L52" s="28">
+        <v>87</v>
+      </c>
+      <c r="M52" s="28">
+        <v>88</v>
+      </c>
+      <c r="N52" s="28">
+        <v>89</v>
+      </c>
+      <c r="O52" s="28">
+        <v>90</v>
+      </c>
+      <c r="P52" s="28">
+        <v>92</v>
+      </c>
+      <c r="Q52" s="28">
+        <v>93</v>
+      </c>
+      <c r="R52" s="28">
+        <v>94</v>
+      </c>
+      <c r="S52" s="28">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B53" s="2">
+        <v>630</v>
+      </c>
+      <c r="C53" s="28">
+        <v>80</v>
+      </c>
+      <c r="D53" s="28">
+        <v>81</v>
+      </c>
+      <c r="E53" s="28">
+        <v>82</v>
+      </c>
+      <c r="F53" s="28">
+        <v>84</v>
+      </c>
+      <c r="G53" s="28">
+        <v>85</v>
+      </c>
+      <c r="H53" s="28">
+        <v>86</v>
+      </c>
+      <c r="I53" s="28">
+        <v>87</v>
+      </c>
+      <c r="J53" s="28">
+        <v>89</v>
+      </c>
+      <c r="K53" s="28">
+        <v>90</v>
+      </c>
+      <c r="L53" s="28">
+        <v>91</v>
+      </c>
+      <c r="M53" s="28">
+        <v>92</v>
+      </c>
+      <c r="N53" s="28">
+        <v>94</v>
+      </c>
+      <c r="O53" s="28">
+        <v>95</v>
+      </c>
+      <c r="P53" s="28">
+        <v>96</v>
+      </c>
+      <c r="Q53" s="28">
+        <v>98</v>
+      </c>
+      <c r="R53" s="28">
+        <v>99</v>
+      </c>
+      <c r="S53" s="28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B54" s="2">
+        <v>660</v>
+      </c>
+      <c r="C54" s="28">
+        <v>84</v>
+      </c>
+      <c r="D54" s="28">
+        <v>85</v>
+      </c>
+      <c r="E54" s="28">
+        <v>86</v>
+      </c>
+      <c r="F54" s="28">
+        <v>88</v>
+      </c>
+      <c r="G54" s="28">
+        <v>89</v>
+      </c>
+      <c r="H54" s="28">
+        <v>90</v>
+      </c>
+      <c r="I54" s="28">
+        <v>92</v>
+      </c>
+      <c r="J54" s="28">
+        <v>93</v>
+      </c>
+      <c r="K54" s="28">
+        <v>94</v>
+      </c>
+      <c r="L54" s="28">
+        <v>96</v>
+      </c>
+      <c r="M54" s="28">
+        <v>97</v>
+      </c>
+      <c r="N54" s="28">
+        <v>98</v>
+      </c>
+      <c r="O54" s="28">
+        <v>99</v>
+      </c>
+      <c r="P54" s="28">
+        <v>101</v>
+      </c>
+      <c r="Q54" s="28">
+        <v>102</v>
+      </c>
+      <c r="R54" s="28">
+        <v>103</v>
+      </c>
+      <c r="S54" s="28">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B55" s="2">
+        <v>690</v>
+      </c>
+      <c r="C55" s="28">
+        <v>87</v>
+      </c>
+      <c r="D55" s="28">
+        <v>89</v>
+      </c>
+      <c r="E55" s="28">
+        <v>90</v>
+      </c>
+      <c r="F55" s="28">
+        <v>92</v>
+      </c>
+      <c r="G55" s="28">
+        <v>93</v>
+      </c>
+      <c r="H55" s="28">
+        <v>94</v>
+      </c>
+      <c r="I55" s="28">
+        <v>96</v>
+      </c>
+      <c r="J55" s="28">
+        <v>97</v>
+      </c>
+      <c r="K55" s="28">
+        <v>98</v>
+      </c>
+      <c r="L55" s="28">
+        <v>100</v>
+      </c>
+      <c r="M55" s="28">
+        <v>101</v>
+      </c>
+      <c r="N55" s="28">
+        <v>103</v>
+      </c>
+      <c r="O55" s="28">
+        <v>104</v>
+      </c>
+      <c r="P55" s="28">
+        <v>105</v>
+      </c>
+      <c r="Q55" s="28">
+        <v>107</v>
+      </c>
+      <c r="R55" s="28">
+        <v>108</v>
+      </c>
+      <c r="S55" s="28">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C6:S19">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42:S55">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -8485,6 +12354,14 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39" xr:uid="{AE0B92C0-622F-44DC-A20D-E2951E1E2D47}">
+      <formula1>$B$42:$B$55</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C39" xr:uid="{BC03DFFA-91C1-41B9-9BA4-3ECA53230588}">
+      <formula1>$C$41:$S$41</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -8492,10 +12369,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40285E56-8A2C-4564-8575-7360840FD5FD}">
-  <dimension ref="B2:S19"/>
+  <dimension ref="B2:S57"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="86" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A37" zoomScale="86" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8523,83 +12400,89 @@
       <c r="H2" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="J2" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B3" s="14">
+      <c r="B3" s="13">
         <v>330</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="16">
         <v>0.06</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <f>(G3+H3)/2</f>
         <v>6.585</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="17">
         <f>PRODUCT(B3:D3)</f>
         <v>130.38300000000001</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="11">
         <v>5.96</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="11">
         <v>7.21</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B5" s="8">
+      <c r="B5" s="20">
         <f>E3</f>
         <v>130.38300000000001</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="15">
         <v>0.02</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <v>0.03</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="15">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="15">
         <v>0.04</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="15">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="15">
         <v>0.05</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="15">
         <v>5.5E-2</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="15">
         <v>0.06</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="15">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="M5" s="16">
+      <c r="M5" s="15">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N5" s="16">
+      <c r="N5" s="15">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="O5" s="16">
+      <c r="O5" s="15">
         <v>0.08</v>
       </c>
-      <c r="P5" s="16">
+      <c r="P5" s="15">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="Q5" s="16">
+      <c r="Q5" s="15">
         <v>0.09</v>
       </c>
-      <c r="R5" s="16">
+      <c r="R5" s="15">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="S5" s="16">
+      <c r="S5" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -8607,56 +12490,56 @@
       <c r="B6" s="2">
         <v>270</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="20">
         <f t="dataTable" ref="C6:S19" dt2D="1" dtr="1" r1="C3" r2="B3"/>
         <v>35.559000000000005</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="20">
         <v>44.448749999999997</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="20">
         <v>53.338499999999996</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="20">
         <v>62.22825000000001</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="20">
         <v>71.118000000000009</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="20">
         <v>80.007750000000001</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="20">
         <v>88.897499999999994</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="20">
         <v>97.78725</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="20">
         <v>106.67699999999999</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="20">
         <v>115.56675</v>
       </c>
-      <c r="M6" s="21">
+      <c r="M6" s="20">
         <v>124.45650000000002</v>
       </c>
-      <c r="N6" s="21">
+      <c r="N6" s="20">
         <v>133.34625</v>
       </c>
-      <c r="O6" s="21">
+      <c r="O6" s="20">
         <v>142.23600000000002</v>
       </c>
-      <c r="P6" s="21">
+      <c r="P6" s="20">
         <v>151.12575000000001</v>
       </c>
-      <c r="Q6" s="21">
+      <c r="Q6" s="20">
         <v>160.0155</v>
       </c>
-      <c r="R6" s="21">
+      <c r="R6" s="20">
         <v>168.90525</v>
       </c>
-      <c r="S6" s="21">
+      <c r="S6" s="20">
         <v>177.79499999999999</v>
       </c>
     </row>
@@ -8664,55 +12547,55 @@
       <c r="B7" s="2">
         <v>280</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="20">
         <v>36.876000000000005</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="20">
         <v>46.094999999999999</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="20">
         <v>55.314</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="20">
         <v>64.533000000000001</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="20">
         <v>73.75200000000001</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="20">
         <v>82.971000000000004</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="20">
         <v>92.19</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="20">
         <v>101.40900000000001</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="20">
         <v>110.628</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="20">
         <v>119.84699999999999</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="20">
         <v>129.066</v>
       </c>
-      <c r="N7" s="21">
+      <c r="N7" s="20">
         <v>138.285</v>
       </c>
-      <c r="O7" s="21">
+      <c r="O7" s="20">
         <v>147.50400000000002</v>
       </c>
-      <c r="P7" s="21">
+      <c r="P7" s="20">
         <v>156.72300000000001</v>
       </c>
-      <c r="Q7" s="21">
+      <c r="Q7" s="20">
         <v>165.94200000000001</v>
       </c>
-      <c r="R7" s="21">
+      <c r="R7" s="20">
         <v>175.161</v>
       </c>
-      <c r="S7" s="21">
+      <c r="S7" s="20">
         <v>184.38</v>
       </c>
     </row>
@@ -8720,55 +12603,55 @@
       <c r="B8" s="2">
         <v>290</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="20">
         <v>38.192999999999998</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="20">
         <v>47.741250000000001</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="20">
         <v>57.289499999999997</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="20">
         <v>66.83775</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="20">
         <v>76.385999999999996</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="20">
         <v>85.934249999999992</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="20">
         <v>95.482500000000002</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="20">
         <v>105.03075</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="20">
         <v>114.57899999999999</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="20">
         <v>124.12725</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="20">
         <v>133.6755</v>
       </c>
-      <c r="N8" s="21">
+      <c r="N8" s="20">
         <v>143.22375</v>
       </c>
-      <c r="O8" s="21">
+      <c r="O8" s="20">
         <v>152.77199999999999</v>
       </c>
-      <c r="P8" s="21">
+      <c r="P8" s="20">
         <v>162.32025000000002</v>
       </c>
-      <c r="Q8" s="21">
+      <c r="Q8" s="20">
         <v>171.86849999999998</v>
       </c>
-      <c r="R8" s="21">
+      <c r="R8" s="20">
         <v>181.41675000000001</v>
       </c>
-      <c r="S8" s="21">
+      <c r="S8" s="20">
         <v>190.965</v>
       </c>
     </row>
@@ -8776,55 +12659,55 @@
       <c r="B9" s="2">
         <v>300</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="20">
         <v>39.51</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="20">
         <v>49.387500000000003</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="20">
         <v>59.265000000000001</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="20">
         <v>69.142500000000013</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="20">
         <v>79.02</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="20">
         <v>88.897499999999994</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="20">
         <v>98.775000000000006</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="20">
         <v>108.6525</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="20">
         <v>118.53</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L9" s="20">
         <v>128.4075</v>
       </c>
-      <c r="M9" s="21">
+      <c r="M9" s="20">
         <v>138.28500000000003</v>
       </c>
-      <c r="N9" s="21">
+      <c r="N9" s="20">
         <v>148.16249999999999</v>
       </c>
-      <c r="O9" s="21">
+      <c r="O9" s="20">
         <v>158.04</v>
       </c>
-      <c r="P9" s="21">
+      <c r="P9" s="20">
         <v>167.91750000000002</v>
       </c>
-      <c r="Q9" s="21">
+      <c r="Q9" s="20">
         <v>177.79499999999999</v>
       </c>
-      <c r="R9" s="21">
+      <c r="R9" s="20">
         <v>187.67249999999999</v>
       </c>
-      <c r="S9" s="21">
+      <c r="S9" s="20">
         <v>197.55</v>
       </c>
     </row>
@@ -8832,55 +12715,55 @@
       <c r="B10" s="2">
         <v>310</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="20">
         <v>40.826999999999998</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="20">
         <v>51.033749999999998</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="20">
         <v>61.24049999999999</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="20">
         <v>71.447250000000011</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="20">
         <v>81.653999999999996</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="20">
         <v>91.860749999999996</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="20">
         <v>102.0675</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J10" s="20">
         <v>112.27425000000001</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K10" s="20">
         <v>122.48099999999998</v>
       </c>
-      <c r="L10" s="21">
+      <c r="L10" s="20">
         <v>132.68775000000002</v>
       </c>
-      <c r="M10" s="21">
+      <c r="M10" s="20">
         <v>142.89450000000002</v>
       </c>
-      <c r="N10" s="21">
+      <c r="N10" s="20">
         <v>153.10124999999999</v>
       </c>
-      <c r="O10" s="21">
+      <c r="O10" s="20">
         <v>163.30799999999999</v>
       </c>
-      <c r="P10" s="21">
+      <c r="P10" s="20">
         <v>173.51475000000002</v>
       </c>
-      <c r="Q10" s="21">
+      <c r="Q10" s="20">
         <v>183.72149999999999</v>
       </c>
-      <c r="R10" s="21">
+      <c r="R10" s="20">
         <v>193.92824999999999</v>
       </c>
-      <c r="S10" s="21">
+      <c r="S10" s="20">
         <v>204.13499999999999</v>
       </c>
     </row>
@@ -8888,55 +12771,55 @@
       <c r="B11" s="2">
         <v>320</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="20">
         <v>42.144000000000005</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="20">
         <v>52.68</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="20">
         <v>63.215999999999994</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="20">
         <v>73.75200000000001</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="20">
         <v>84.288000000000011</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="20">
         <v>94.823999999999984</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="20">
         <v>105.36</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J11" s="20">
         <v>115.89600000000002</v>
       </c>
-      <c r="K11" s="21">
+      <c r="K11" s="20">
         <v>126.43199999999999</v>
       </c>
-      <c r="L11" s="21">
+      <c r="L11" s="20">
         <v>136.96800000000002</v>
       </c>
-      <c r="M11" s="21">
+      <c r="M11" s="20">
         <v>147.50400000000002</v>
       </c>
-      <c r="N11" s="21">
+      <c r="N11" s="20">
         <v>158.04</v>
       </c>
-      <c r="O11" s="21">
+      <c r="O11" s="20">
         <v>168.57600000000002</v>
       </c>
-      <c r="P11" s="21">
+      <c r="P11" s="20">
         <v>179.11200000000002</v>
       </c>
-      <c r="Q11" s="21">
+      <c r="Q11" s="20">
         <v>189.64799999999997</v>
       </c>
-      <c r="R11" s="21">
+      <c r="R11" s="20">
         <v>200.184</v>
       </c>
-      <c r="S11" s="21">
+      <c r="S11" s="20">
         <v>210.72</v>
       </c>
     </row>
@@ -8944,55 +12827,55 @@
       <c r="B12" s="2">
         <v>330</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="20">
         <v>43.461000000000006</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="20">
         <v>54.326250000000002</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="20">
         <v>65.191500000000005</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="20">
         <v>76.056750000000008</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="20">
         <v>86.922000000000011</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="20">
         <v>97.78725</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="20">
         <v>108.6525</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="20">
         <v>119.51774999999999</v>
       </c>
-      <c r="K12" s="21">
+      <c r="K12" s="20">
         <v>130.38300000000001</v>
       </c>
-      <c r="L12" s="21">
+      <c r="L12" s="20">
         <v>141.24824999999998</v>
       </c>
-      <c r="M12" s="21">
+      <c r="M12" s="20">
         <v>152.11350000000002</v>
       </c>
-      <c r="N12" s="21">
+      <c r="N12" s="20">
         <v>162.97874999999999</v>
       </c>
-      <c r="O12" s="21">
+      <c r="O12" s="20">
         <v>173.84400000000002</v>
       </c>
-      <c r="P12" s="21">
+      <c r="P12" s="20">
         <v>184.70925</v>
       </c>
-      <c r="Q12" s="21">
+      <c r="Q12" s="20">
         <v>195.5745</v>
       </c>
-      <c r="R12" s="21">
+      <c r="R12" s="20">
         <v>206.43975</v>
       </c>
-      <c r="S12" s="21">
+      <c r="S12" s="20">
         <v>217.30500000000001</v>
       </c>
     </row>
@@ -9000,55 +12883,55 @@
       <c r="B13" s="2">
         <v>340</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="20">
         <v>44.777999999999999</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="20">
         <v>55.972499999999997</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="20">
         <v>67.167000000000002</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="20">
         <v>78.361500000000007</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="20">
         <v>89.555999999999997</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="20">
         <v>100.75049999999999</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="20">
         <v>111.94499999999999</v>
       </c>
-      <c r="J13" s="21">
+      <c r="J13" s="20">
         <v>123.1395</v>
       </c>
-      <c r="K13" s="21">
+      <c r="K13" s="20">
         <v>134.334</v>
       </c>
-      <c r="L13" s="21">
+      <c r="L13" s="20">
         <v>145.52850000000001</v>
       </c>
-      <c r="M13" s="21">
+      <c r="M13" s="20">
         <v>156.72300000000001</v>
       </c>
-      <c r="N13" s="21">
+      <c r="N13" s="20">
         <v>167.91749999999999</v>
       </c>
-      <c r="O13" s="21">
+      <c r="O13" s="20">
         <v>179.11199999999999</v>
       </c>
-      <c r="P13" s="21">
+      <c r="P13" s="20">
         <v>190.3065</v>
       </c>
-      <c r="Q13" s="21">
+      <c r="Q13" s="20">
         <v>201.50099999999998</v>
       </c>
-      <c r="R13" s="21">
+      <c r="R13" s="20">
         <v>212.69549999999998</v>
       </c>
-      <c r="S13" s="21">
+      <c r="S13" s="20">
         <v>223.89</v>
       </c>
     </row>
@@ -9056,55 +12939,55 @@
       <c r="B14" s="2">
         <v>350</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="20">
         <v>46.094999999999999</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="20">
         <v>57.618749999999999</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="20">
         <v>69.142499999999998</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="20">
         <v>80.666250000000005</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="20">
         <v>92.19</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="20">
         <v>103.71375</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="20">
         <v>115.2375</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="20">
         <v>126.76125</v>
       </c>
-      <c r="K14" s="21">
+      <c r="K14" s="20">
         <v>138.285</v>
       </c>
-      <c r="L14" s="21">
+      <c r="L14" s="20">
         <v>149.80875</v>
       </c>
-      <c r="M14" s="21">
+      <c r="M14" s="20">
         <v>161.33250000000001</v>
       </c>
-      <c r="N14" s="21">
+      <c r="N14" s="20">
         <v>172.85624999999999</v>
       </c>
-      <c r="O14" s="21">
+      <c r="O14" s="20">
         <v>184.38</v>
       </c>
-      <c r="P14" s="21">
+      <c r="P14" s="20">
         <v>195.90375000000003</v>
       </c>
-      <c r="Q14" s="21">
+      <c r="Q14" s="20">
         <v>207.42750000000001</v>
       </c>
-      <c r="R14" s="21">
+      <c r="R14" s="20">
         <v>218.95124999999999</v>
       </c>
-      <c r="S14" s="21">
+      <c r="S14" s="20">
         <v>230.47499999999999</v>
       </c>
     </row>
@@ -9112,55 +12995,55 @@
       <c r="B15" s="2">
         <v>360</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="20">
         <v>47.411999999999999</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="20">
         <v>59.265000000000001</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="20">
         <v>71.117999999999995</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="20">
         <v>82.971000000000004</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="20">
         <v>94.823999999999998</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="20">
         <v>106.67699999999999</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="20">
         <v>118.53</v>
       </c>
-      <c r="J15" s="21">
+      <c r="J15" s="20">
         <v>130.38300000000001</v>
       </c>
-      <c r="K15" s="21">
+      <c r="K15" s="20">
         <v>142.23599999999999</v>
       </c>
-      <c r="L15" s="21">
+      <c r="L15" s="20">
         <v>154.08900000000003</v>
       </c>
-      <c r="M15" s="21">
+      <c r="M15" s="20">
         <v>165.94200000000001</v>
       </c>
-      <c r="N15" s="21">
+      <c r="N15" s="20">
         <v>177.79499999999999</v>
       </c>
-      <c r="O15" s="21">
+      <c r="O15" s="20">
         <v>189.648</v>
       </c>
-      <c r="P15" s="21">
+      <c r="P15" s="20">
         <v>201.501</v>
       </c>
-      <c r="Q15" s="21">
+      <c r="Q15" s="20">
         <v>213.35399999999998</v>
       </c>
-      <c r="R15" s="21">
+      <c r="R15" s="20">
         <v>225.20700000000002</v>
       </c>
-      <c r="S15" s="21">
+      <c r="S15" s="20">
         <v>237.06</v>
       </c>
     </row>
@@ -9168,55 +13051,55 @@
       <c r="B16" s="2">
         <v>370</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="20">
         <v>48.728999999999999</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="20">
         <v>60.911250000000003</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="20">
         <v>73.093499999999992</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="20">
         <v>85.275750000000002</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="20">
         <v>97.457999999999998</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="20">
         <v>109.64024999999999</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="20">
         <v>121.82250000000001</v>
       </c>
-      <c r="J16" s="21">
+      <c r="J16" s="20">
         <v>134.00475</v>
       </c>
-      <c r="K16" s="21">
+      <c r="K16" s="20">
         <v>146.18699999999998</v>
       </c>
-      <c r="L16" s="21">
+      <c r="L16" s="20">
         <v>158.36924999999999</v>
       </c>
-      <c r="M16" s="21">
+      <c r="M16" s="20">
         <v>170.5515</v>
       </c>
-      <c r="N16" s="21">
+      <c r="N16" s="20">
         <v>182.73374999999999</v>
       </c>
-      <c r="O16" s="21">
+      <c r="O16" s="20">
         <v>194.916</v>
       </c>
-      <c r="P16" s="21">
+      <c r="P16" s="20">
         <v>207.09825000000001</v>
       </c>
-      <c r="Q16" s="21">
+      <c r="Q16" s="20">
         <v>219.28049999999999</v>
       </c>
-      <c r="R16" s="21">
+      <c r="R16" s="20">
         <v>231.46275</v>
       </c>
-      <c r="S16" s="21">
+      <c r="S16" s="20">
         <v>243.64500000000001</v>
       </c>
     </row>
@@ -9224,55 +13107,55 @@
       <c r="B17" s="2">
         <v>380</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="20">
         <v>50.046000000000006</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="20">
         <v>62.557499999999997</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="20">
         <v>75.069000000000003</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="20">
         <v>87.580500000000001</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="20">
         <v>100.09200000000001</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="20">
         <v>112.60349999999998</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="20">
         <v>125.11499999999999</v>
       </c>
-      <c r="J17" s="21">
+      <c r="J17" s="20">
         <v>137.62649999999999</v>
       </c>
-      <c r="K17" s="21">
+      <c r="K17" s="20">
         <v>150.13800000000001</v>
       </c>
-      <c r="L17" s="21">
+      <c r="L17" s="20">
         <v>162.64949999999999</v>
       </c>
-      <c r="M17" s="21">
+      <c r="M17" s="20">
         <v>175.161</v>
       </c>
-      <c r="N17" s="21">
+      <c r="N17" s="20">
         <v>187.67249999999999</v>
       </c>
-      <c r="O17" s="21">
+      <c r="O17" s="20">
         <v>200.18400000000003</v>
       </c>
-      <c r="P17" s="21">
+      <c r="P17" s="20">
         <v>212.69550000000004</v>
       </c>
-      <c r="Q17" s="21">
+      <c r="Q17" s="20">
         <v>225.20699999999997</v>
       </c>
-      <c r="R17" s="21">
+      <c r="R17" s="20">
         <v>237.71850000000001</v>
       </c>
-      <c r="S17" s="21">
+      <c r="S17" s="20">
         <v>250.23</v>
       </c>
     </row>
@@ -9280,55 +13163,55 @@
       <c r="B18" s="2">
         <v>390</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="20">
         <v>51.363</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="20">
         <v>64.203749999999999</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="20">
         <v>77.044499999999999</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="20">
         <v>89.885250000000013</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="20">
         <v>102.726</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="20">
         <v>115.56675</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="20">
         <v>128.4075</v>
       </c>
-      <c r="J18" s="21">
+      <c r="J18" s="20">
         <v>141.24824999999998</v>
       </c>
-      <c r="K18" s="21">
+      <c r="K18" s="20">
         <v>154.089</v>
       </c>
-      <c r="L18" s="21">
+      <c r="L18" s="20">
         <v>166.92975000000001</v>
       </c>
-      <c r="M18" s="21">
+      <c r="M18" s="20">
         <v>179.77050000000003</v>
       </c>
-      <c r="N18" s="21">
+      <c r="N18" s="20">
         <v>192.61125000000001</v>
       </c>
-      <c r="O18" s="21">
+      <c r="O18" s="20">
         <v>205.452</v>
       </c>
-      <c r="P18" s="21">
+      <c r="P18" s="20">
         <v>218.29275000000004</v>
       </c>
-      <c r="Q18" s="21">
+      <c r="Q18" s="20">
         <v>231.1335</v>
       </c>
-      <c r="R18" s="21">
+      <c r="R18" s="20">
         <v>243.97424999999998</v>
       </c>
-      <c r="S18" s="21">
+      <c r="S18" s="20">
         <v>256.815</v>
       </c>
     </row>
@@ -9336,60 +13219,952 @@
       <c r="B19" s="2">
         <v>400</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="20">
         <v>52.68</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="20">
         <v>65.849999999999994</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="20">
         <v>79.02</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="20">
         <v>92.190000000000012</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="20">
         <v>105.36</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="20">
         <v>118.53</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="20">
         <v>131.69999999999999</v>
       </c>
-      <c r="J19" s="21">
+      <c r="J19" s="20">
         <v>144.87</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K19" s="20">
         <v>158.04</v>
       </c>
-      <c r="L19" s="21">
+      <c r="L19" s="20">
         <v>171.21</v>
       </c>
-      <c r="M19" s="21">
+      <c r="M19" s="20">
         <v>184.38000000000002</v>
       </c>
-      <c r="N19" s="21">
+      <c r="N19" s="20">
         <v>197.55</v>
       </c>
-      <c r="O19" s="21">
+      <c r="O19" s="20">
         <v>210.72</v>
       </c>
-      <c r="P19" s="21">
+      <c r="P19" s="20">
         <v>223.89</v>
       </c>
-      <c r="Q19" s="21">
+      <c r="Q19" s="20">
         <v>237.06</v>
       </c>
-      <c r="R19" s="21">
+      <c r="R19" s="20">
         <v>250.23</v>
       </c>
-      <c r="S19" s="21">
+      <c r="S19" s="20">
         <v>263.39999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="E39" s="35"/>
+    </row>
+    <row r="40" spans="2:19" ht="21" x14ac:dyDescent="0.35">
+      <c r="B40" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="23"/>
+      <c r="F40" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B41" s="33">
+        <v>320</v>
+      </c>
+      <c r="C41" s="34">
+        <v>0.06</v>
+      </c>
+      <c r="D41" s="27">
+        <f>ROUNDUP(C41*B41,0)</f>
+        <v>20</v>
+      </c>
+      <c r="E41" s="25"/>
+      <c r="F41" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B43" s="28">
+        <f>D41</f>
+        <v>20</v>
+      </c>
+      <c r="C43" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="D43" s="26">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E43" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="F43" s="26">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G43" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="H43" s="26">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="I43" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="J43" s="26">
+        <v>5.5E-2</v>
+      </c>
+      <c r="K43" s="26">
+        <v>0.06</v>
+      </c>
+      <c r="L43" s="26">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M43" s="26">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N43" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="O43" s="26">
+        <v>0.08</v>
+      </c>
+      <c r="P43" s="26">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="Q43" s="26">
+        <v>0.09</v>
+      </c>
+      <c r="R43" s="26">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S43" s="26">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B44" s="2">
+        <v>270</v>
+      </c>
+      <c r="C44" s="28">
+        <f t="dataTable" ref="C44:S57" dt2D="1" dtr="1" r1="C41" r2="B41"/>
+        <v>6</v>
+      </c>
+      <c r="D44" s="28">
+        <v>7</v>
+      </c>
+      <c r="E44" s="28">
+        <v>9</v>
+      </c>
+      <c r="F44" s="28">
+        <v>10</v>
+      </c>
+      <c r="G44" s="28">
+        <v>11</v>
+      </c>
+      <c r="H44" s="28">
+        <v>13</v>
+      </c>
+      <c r="I44" s="28">
+        <v>14</v>
+      </c>
+      <c r="J44" s="28">
+        <v>15</v>
+      </c>
+      <c r="K44" s="28">
+        <v>17</v>
+      </c>
+      <c r="L44" s="28">
+        <v>18</v>
+      </c>
+      <c r="M44" s="28">
+        <v>19</v>
+      </c>
+      <c r="N44" s="28">
+        <v>21</v>
+      </c>
+      <c r="O44" s="28">
+        <v>22</v>
+      </c>
+      <c r="P44" s="28">
+        <v>23</v>
+      </c>
+      <c r="Q44" s="28">
+        <v>25</v>
+      </c>
+      <c r="R44" s="28">
+        <v>26</v>
+      </c>
+      <c r="S44" s="28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B45" s="2">
+        <v>280</v>
+      </c>
+      <c r="C45" s="28">
+        <v>6</v>
+      </c>
+      <c r="D45" s="28">
+        <v>7</v>
+      </c>
+      <c r="E45" s="28">
+        <v>9</v>
+      </c>
+      <c r="F45" s="28">
+        <v>10</v>
+      </c>
+      <c r="G45" s="28">
+        <v>12</v>
+      </c>
+      <c r="H45" s="28">
+        <v>13</v>
+      </c>
+      <c r="I45" s="28">
+        <v>14</v>
+      </c>
+      <c r="J45" s="28">
+        <v>16</v>
+      </c>
+      <c r="K45" s="28">
+        <v>17</v>
+      </c>
+      <c r="L45" s="28">
+        <v>19</v>
+      </c>
+      <c r="M45" s="28">
+        <v>20</v>
+      </c>
+      <c r="N45" s="28">
+        <v>21</v>
+      </c>
+      <c r="O45" s="28">
+        <v>23</v>
+      </c>
+      <c r="P45" s="28">
+        <v>24</v>
+      </c>
+      <c r="Q45" s="28">
+        <v>26</v>
+      </c>
+      <c r="R45" s="28">
+        <v>27</v>
+      </c>
+      <c r="S45" s="28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B46" s="2">
+        <v>290</v>
+      </c>
+      <c r="C46" s="28">
+        <v>6</v>
+      </c>
+      <c r="D46" s="28">
+        <v>8</v>
+      </c>
+      <c r="E46" s="28">
+        <v>9</v>
+      </c>
+      <c r="F46" s="28">
+        <v>11</v>
+      </c>
+      <c r="G46" s="28">
+        <v>12</v>
+      </c>
+      <c r="H46" s="28">
+        <v>14</v>
+      </c>
+      <c r="I46" s="28">
+        <v>15</v>
+      </c>
+      <c r="J46" s="28">
+        <v>16</v>
+      </c>
+      <c r="K46" s="28">
+        <v>18</v>
+      </c>
+      <c r="L46" s="28">
+        <v>19</v>
+      </c>
+      <c r="M46" s="28">
+        <v>21</v>
+      </c>
+      <c r="N46" s="28">
+        <v>22</v>
+      </c>
+      <c r="O46" s="28">
+        <v>24</v>
+      </c>
+      <c r="P46" s="28">
+        <v>25</v>
+      </c>
+      <c r="Q46" s="28">
+        <v>27</v>
+      </c>
+      <c r="R46" s="28">
+        <v>28</v>
+      </c>
+      <c r="S46" s="28">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B47" s="2">
+        <v>300</v>
+      </c>
+      <c r="C47" s="28">
+        <v>6</v>
+      </c>
+      <c r="D47" s="28">
+        <v>8</v>
+      </c>
+      <c r="E47" s="28">
+        <v>9</v>
+      </c>
+      <c r="F47" s="28">
+        <v>11</v>
+      </c>
+      <c r="G47" s="28">
+        <v>12</v>
+      </c>
+      <c r="H47" s="28">
+        <v>14</v>
+      </c>
+      <c r="I47" s="28">
+        <v>15</v>
+      </c>
+      <c r="J47" s="28">
+        <v>17</v>
+      </c>
+      <c r="K47" s="28">
+        <v>18</v>
+      </c>
+      <c r="L47" s="28">
+        <v>20</v>
+      </c>
+      <c r="M47" s="28">
+        <v>21</v>
+      </c>
+      <c r="N47" s="28">
+        <v>23</v>
+      </c>
+      <c r="O47" s="28">
+        <v>24</v>
+      </c>
+      <c r="P47" s="28">
+        <v>26</v>
+      </c>
+      <c r="Q47" s="28">
+        <v>27</v>
+      </c>
+      <c r="R47" s="28">
+        <v>29</v>
+      </c>
+      <c r="S47" s="28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B48" s="2">
+        <v>310</v>
+      </c>
+      <c r="C48" s="28">
+        <v>7</v>
+      </c>
+      <c r="D48" s="28">
+        <v>8</v>
+      </c>
+      <c r="E48" s="28">
+        <v>10</v>
+      </c>
+      <c r="F48" s="28">
+        <v>11</v>
+      </c>
+      <c r="G48" s="28">
+        <v>13</v>
+      </c>
+      <c r="H48" s="28">
+        <v>14</v>
+      </c>
+      <c r="I48" s="28">
+        <v>16</v>
+      </c>
+      <c r="J48" s="28">
+        <v>18</v>
+      </c>
+      <c r="K48" s="28">
+        <v>19</v>
+      </c>
+      <c r="L48" s="28">
+        <v>21</v>
+      </c>
+      <c r="M48" s="28">
+        <v>22</v>
+      </c>
+      <c r="N48" s="28">
+        <v>24</v>
+      </c>
+      <c r="O48" s="28">
+        <v>25</v>
+      </c>
+      <c r="P48" s="28">
+        <v>27</v>
+      </c>
+      <c r="Q48" s="28">
+        <v>28</v>
+      </c>
+      <c r="R48" s="28">
+        <v>30</v>
+      </c>
+      <c r="S48" s="28">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B49" s="2">
+        <v>320</v>
+      </c>
+      <c r="C49" s="28">
+        <v>7</v>
+      </c>
+      <c r="D49" s="28">
+        <v>8</v>
+      </c>
+      <c r="E49" s="28">
+        <v>10</v>
+      </c>
+      <c r="F49" s="28">
+        <v>12</v>
+      </c>
+      <c r="G49" s="28">
+        <v>13</v>
+      </c>
+      <c r="H49" s="28">
+        <v>15</v>
+      </c>
+      <c r="I49" s="28">
+        <v>16</v>
+      </c>
+      <c r="J49" s="28">
+        <v>18</v>
+      </c>
+      <c r="K49" s="28">
+        <v>20</v>
+      </c>
+      <c r="L49" s="28">
+        <v>21</v>
+      </c>
+      <c r="M49" s="28">
+        <v>23</v>
+      </c>
+      <c r="N49" s="28">
+        <v>24</v>
+      </c>
+      <c r="O49" s="28">
+        <v>26</v>
+      </c>
+      <c r="P49" s="28">
+        <v>28</v>
+      </c>
+      <c r="Q49" s="28">
+        <v>29</v>
+      </c>
+      <c r="R49" s="28">
+        <v>31</v>
+      </c>
+      <c r="S49" s="28">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B50" s="2">
+        <v>330</v>
+      </c>
+      <c r="C50" s="28">
+        <v>7</v>
+      </c>
+      <c r="D50" s="28">
+        <v>9</v>
+      </c>
+      <c r="E50" s="28">
+        <v>10</v>
+      </c>
+      <c r="F50" s="28">
+        <v>12</v>
+      </c>
+      <c r="G50" s="28">
+        <v>14</v>
+      </c>
+      <c r="H50" s="28">
+        <v>15</v>
+      </c>
+      <c r="I50" s="28">
+        <v>17</v>
+      </c>
+      <c r="J50" s="28">
+        <v>19</v>
+      </c>
+      <c r="K50" s="28">
+        <v>20</v>
+      </c>
+      <c r="L50" s="28">
+        <v>22</v>
+      </c>
+      <c r="M50" s="28">
+        <v>24</v>
+      </c>
+      <c r="N50" s="28">
+        <v>25</v>
+      </c>
+      <c r="O50" s="28">
+        <v>27</v>
+      </c>
+      <c r="P50" s="28">
+        <v>29</v>
+      </c>
+      <c r="Q50" s="28">
+        <v>30</v>
+      </c>
+      <c r="R50" s="28">
+        <v>32</v>
+      </c>
+      <c r="S50" s="28">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B51" s="2">
+        <v>340</v>
+      </c>
+      <c r="C51" s="28">
+        <v>7</v>
+      </c>
+      <c r="D51" s="28">
+        <v>9</v>
+      </c>
+      <c r="E51" s="28">
+        <v>11</v>
+      </c>
+      <c r="F51" s="28">
+        <v>12</v>
+      </c>
+      <c r="G51" s="28">
+        <v>14</v>
+      </c>
+      <c r="H51" s="28">
+        <v>16</v>
+      </c>
+      <c r="I51" s="28">
+        <v>17</v>
+      </c>
+      <c r="J51" s="28">
+        <v>19</v>
+      </c>
+      <c r="K51" s="28">
+        <v>21</v>
+      </c>
+      <c r="L51" s="28">
+        <v>23</v>
+      </c>
+      <c r="M51" s="28">
+        <v>24</v>
+      </c>
+      <c r="N51" s="28">
+        <v>26</v>
+      </c>
+      <c r="O51" s="28">
+        <v>28</v>
+      </c>
+      <c r="P51" s="28">
+        <v>29</v>
+      </c>
+      <c r="Q51" s="28">
+        <v>31</v>
+      </c>
+      <c r="R51" s="28">
+        <v>33</v>
+      </c>
+      <c r="S51" s="28">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B52" s="2">
+        <v>350</v>
+      </c>
+      <c r="C52" s="28">
+        <v>7</v>
+      </c>
+      <c r="D52" s="28">
+        <v>9</v>
+      </c>
+      <c r="E52" s="28">
+        <v>11</v>
+      </c>
+      <c r="F52" s="28">
+        <v>13</v>
+      </c>
+      <c r="G52" s="28">
+        <v>14</v>
+      </c>
+      <c r="H52" s="28">
+        <v>16</v>
+      </c>
+      <c r="I52" s="28">
+        <v>18</v>
+      </c>
+      <c r="J52" s="28">
+        <v>20</v>
+      </c>
+      <c r="K52" s="28">
+        <v>21</v>
+      </c>
+      <c r="L52" s="28">
+        <v>23</v>
+      </c>
+      <c r="M52" s="28">
+        <v>25</v>
+      </c>
+      <c r="N52" s="28">
+        <v>27</v>
+      </c>
+      <c r="O52" s="28">
+        <v>28</v>
+      </c>
+      <c r="P52" s="28">
+        <v>30</v>
+      </c>
+      <c r="Q52" s="28">
+        <v>32</v>
+      </c>
+      <c r="R52" s="28">
+        <v>34</v>
+      </c>
+      <c r="S52" s="28">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B53" s="2">
+        <v>360</v>
+      </c>
+      <c r="C53" s="28">
+        <v>8</v>
+      </c>
+      <c r="D53" s="28">
+        <v>9</v>
+      </c>
+      <c r="E53" s="28">
+        <v>11</v>
+      </c>
+      <c r="F53" s="28">
+        <v>13</v>
+      </c>
+      <c r="G53" s="28">
+        <v>15</v>
+      </c>
+      <c r="H53" s="28">
+        <v>17</v>
+      </c>
+      <c r="I53" s="28">
+        <v>18</v>
+      </c>
+      <c r="J53" s="28">
+        <v>20</v>
+      </c>
+      <c r="K53" s="28">
+        <v>22</v>
+      </c>
+      <c r="L53" s="28">
+        <v>24</v>
+      </c>
+      <c r="M53" s="28">
+        <v>26</v>
+      </c>
+      <c r="N53" s="28">
+        <v>27</v>
+      </c>
+      <c r="O53" s="28">
+        <v>29</v>
+      </c>
+      <c r="P53" s="28">
+        <v>31</v>
+      </c>
+      <c r="Q53" s="28">
+        <v>33</v>
+      </c>
+      <c r="R53" s="28">
+        <v>35</v>
+      </c>
+      <c r="S53" s="28">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B54" s="2">
+        <v>370</v>
+      </c>
+      <c r="C54" s="28">
+        <v>8</v>
+      </c>
+      <c r="D54" s="28">
+        <v>10</v>
+      </c>
+      <c r="E54" s="28">
+        <v>12</v>
+      </c>
+      <c r="F54" s="28">
+        <v>13</v>
+      </c>
+      <c r="G54" s="28">
+        <v>15</v>
+      </c>
+      <c r="H54" s="28">
+        <v>17</v>
+      </c>
+      <c r="I54" s="28">
+        <v>19</v>
+      </c>
+      <c r="J54" s="28">
+        <v>21</v>
+      </c>
+      <c r="K54" s="28">
+        <v>23</v>
+      </c>
+      <c r="L54" s="28">
+        <v>25</v>
+      </c>
+      <c r="M54" s="28">
+        <v>26</v>
+      </c>
+      <c r="N54" s="28">
+        <v>28</v>
+      </c>
+      <c r="O54" s="28">
+        <v>30</v>
+      </c>
+      <c r="P54" s="28">
+        <v>32</v>
+      </c>
+      <c r="Q54" s="28">
+        <v>34</v>
+      </c>
+      <c r="R54" s="28">
+        <v>36</v>
+      </c>
+      <c r="S54" s="28">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B55" s="2">
+        <v>380</v>
+      </c>
+      <c r="C55" s="28">
+        <v>8</v>
+      </c>
+      <c r="D55" s="28">
+        <v>10</v>
+      </c>
+      <c r="E55" s="28">
+        <v>12</v>
+      </c>
+      <c r="F55" s="28">
+        <v>14</v>
+      </c>
+      <c r="G55" s="28">
+        <v>16</v>
+      </c>
+      <c r="H55" s="28">
+        <v>18</v>
+      </c>
+      <c r="I55" s="28">
+        <v>19</v>
+      </c>
+      <c r="J55" s="28">
+        <v>21</v>
+      </c>
+      <c r="K55" s="28">
+        <v>23</v>
+      </c>
+      <c r="L55" s="28">
+        <v>25</v>
+      </c>
+      <c r="M55" s="28">
+        <v>27</v>
+      </c>
+      <c r="N55" s="28">
+        <v>29</v>
+      </c>
+      <c r="O55" s="28">
+        <v>31</v>
+      </c>
+      <c r="P55" s="28">
+        <v>33</v>
+      </c>
+      <c r="Q55" s="28">
+        <v>35</v>
+      </c>
+      <c r="R55" s="28">
+        <v>37</v>
+      </c>
+      <c r="S55" s="28">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B56" s="2">
+        <v>390</v>
+      </c>
+      <c r="C56" s="28">
+        <v>8</v>
+      </c>
+      <c r="D56" s="28">
+        <v>10</v>
+      </c>
+      <c r="E56" s="28">
+        <v>12</v>
+      </c>
+      <c r="F56" s="28">
+        <v>14</v>
+      </c>
+      <c r="G56" s="28">
+        <v>16</v>
+      </c>
+      <c r="H56" s="28">
+        <v>18</v>
+      </c>
+      <c r="I56" s="28">
+        <v>20</v>
+      </c>
+      <c r="J56" s="28">
+        <v>22</v>
+      </c>
+      <c r="K56" s="28">
+        <v>24</v>
+      </c>
+      <c r="L56" s="28">
+        <v>26</v>
+      </c>
+      <c r="M56" s="28">
+        <v>28</v>
+      </c>
+      <c r="N56" s="28">
+        <v>30</v>
+      </c>
+      <c r="O56" s="28">
+        <v>32</v>
+      </c>
+      <c r="P56" s="28">
+        <v>34</v>
+      </c>
+      <c r="Q56" s="28">
+        <v>36</v>
+      </c>
+      <c r="R56" s="28">
+        <v>38</v>
+      </c>
+      <c r="S56" s="28">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B57" s="2">
+        <v>400</v>
+      </c>
+      <c r="C57" s="28">
+        <v>8</v>
+      </c>
+      <c r="D57" s="28">
+        <v>10</v>
+      </c>
+      <c r="E57" s="28">
+        <v>12</v>
+      </c>
+      <c r="F57" s="28">
+        <v>14</v>
+      </c>
+      <c r="G57" s="28">
+        <v>16</v>
+      </c>
+      <c r="H57" s="28">
+        <v>18</v>
+      </c>
+      <c r="I57" s="28">
+        <v>20</v>
+      </c>
+      <c r="J57" s="28">
+        <v>22</v>
+      </c>
+      <c r="K57" s="28">
+        <v>24</v>
+      </c>
+      <c r="L57" s="28">
+        <v>26</v>
+      </c>
+      <c r="M57" s="28">
+        <v>28</v>
+      </c>
+      <c r="N57" s="28">
+        <v>30</v>
+      </c>
+      <c r="O57" s="28">
+        <v>32</v>
+      </c>
+      <c r="P57" s="28">
+        <v>34</v>
+      </c>
+      <c r="Q57" s="28">
+        <v>36</v>
+      </c>
+      <c r="R57" s="28">
+        <v>38</v>
+      </c>
+      <c r="S57" s="28">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C6:S19">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44:S57">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -9401,27 +14176,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41" xr:uid="{A3E46091-E035-45D2-AD98-930B9D8FA9A7}">
+      <formula1>$B$44:$B$57</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C41" xr:uid="{E77BB7DE-AEBB-41CD-BDF0-B812E774A9FA}">
+      <formula1>$C$43:$S$43</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100ED077DFD7547DE40BB19C407130BA958" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="30b98e02899bc55dc199837b6108a876">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="146f35c0-5549-4b11-9385-b5bad1d7a6e6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8899f713b441a45dc39a6408faeb9f10" ns3:_="">
     <xsd:import namespace="146f35c0-5549-4b11-9385-b5bad1d7a6e6"/>
@@ -9599,24 +14367,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0D16BC9-63C7-4ECC-819E-4E697176BB59}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4BB1E92-878A-4494-BE21-999963AA96A5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C08BEF9B-E79F-4EED-9FBF-FF73572E04B2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9632,4 +14398,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4BB1E92-878A-4494-BE21-999963AA96A5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0D16BC9-63C7-4ECC-819E-4E697176BB59}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>